--- a/data/compounds.xlsx
+++ b/data/compounds.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garciaalom\Documents\GitHub\IMN2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C2B3AC-5929-40F2-8DA0-7AE3B90A388A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10CDA66-F293-4314-9C64-ABF55A494848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBC8D854-8049-474B-86D3-FA7ACE4157A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBC8D854-8049-474B-86D3-FA7ACE4157A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="KMD" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="188">
   <si>
     <t>name</t>
   </si>
@@ -399,12 +399,6 @@
     <t>PA 36:3 (II)</t>
   </si>
   <si>
-    <t>PE 36:3 (I)</t>
-  </si>
-  <si>
-    <t>PE 36:3 (II)</t>
-  </si>
-  <si>
     <t>not seen in POS</t>
   </si>
   <si>
@@ -508,6 +502,108 @@
   </si>
   <si>
     <t>x071_lipidgrape_xx_00_xQC_08_POS_DDA.mzML</t>
+  </si>
+  <si>
+    <t>PE 16:0_18:1</t>
+  </si>
+  <si>
+    <t>x064_lipidgrape_xx_00_xQC_01_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>PE 18:0_18:2</t>
+  </si>
+  <si>
+    <t>x070_lipidgrape_xx_00_xQC_07_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>PE 18:0_18:3</t>
+  </si>
+  <si>
+    <t>x067_lipidgrape_xx_00_xQC_04_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>PE 18:2_18:2</t>
+  </si>
+  <si>
+    <t>PE 18:3_18:3</t>
+  </si>
+  <si>
+    <t>PE 18:2_20:0</t>
+  </si>
+  <si>
+    <t>PE 18:2_22:0</t>
+  </si>
+  <si>
+    <t>PE 18:3_22:0</t>
+  </si>
+  <si>
+    <t>PE 18:2_23:0</t>
+  </si>
+  <si>
+    <t>PE 18:2_24:0</t>
+  </si>
+  <si>
+    <t>PE 18:2_25:0</t>
+  </si>
+  <si>
+    <t>x078_lipidgrape_xx_00_xQC_15_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>x069_lipidgrape_xx_00_xQC_06_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>x083_lipidgrape_xx_00_xQC_20_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>PC 18:0_18:1</t>
+  </si>
+  <si>
+    <t>x083_lipidgrape_xx_00_xQC_20_POS_DDA.mzML</t>
+  </si>
+  <si>
+    <t>PC 18:2_18:2</t>
+  </si>
+  <si>
+    <t>x078_lipidgrape_xx_00_xQC_15_POS_DDA.mzML</t>
+  </si>
+  <si>
+    <t>PC 18:3_18:3</t>
+  </si>
+  <si>
+    <t>x065_lipidgrape_xx_00_xQC_02_POS_DDA.mzML</t>
+  </si>
+  <si>
+    <t>x080_lipidgrape_xx_00_xQC_17_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>MGDG 18:1_18:1</t>
+  </si>
+  <si>
+    <t>MGDG 18:1_18:2</t>
+  </si>
+  <si>
+    <t>MGDG 18:2_18:2</t>
+  </si>
+  <si>
+    <t>x066_lipidgrape_xx_00_xQC_03_NEG_DDA.mzML</t>
+  </si>
+  <si>
+    <t>LPE</t>
+  </si>
+  <si>
+    <t>LPE 16:0</t>
+  </si>
+  <si>
+    <t>DG 34:3 (I)</t>
+  </si>
+  <si>
+    <t>DG 34:3 (II)</t>
+  </si>
+  <si>
+    <t>DG 36:3 (I)</t>
+  </si>
+  <si>
+    <t>DG 36:3 (II)</t>
   </si>
 </sst>
 </file>
@@ -812,7 +908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54B773D1-3EEE-4D9C-8156-FD8CA93DF609}" type="CELLRANGE">
+                    <a:fld id="{165FBE07-45ED-498B-B6F2-081ED93DC10C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -846,7 +942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F95B70FF-68CE-41FF-B5DD-2426C895B234}" type="CELLRANGE">
+                    <a:fld id="{2FB129AA-DA9D-475E-BC8C-3DB395022EFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -880,7 +976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EFE9F06-8F9D-450F-9F12-4809E5B3CBAA}" type="CELLRANGE">
+                    <a:fld id="{50D7FC5F-95AF-4DAE-AD34-F25D9FB878B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -914,7 +1010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8659FC0E-C859-46CE-A642-AD52889F62A9}" type="CELLRANGE">
+                    <a:fld id="{E02E86AB-991C-4034-AA75-326E368C732A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -948,7 +1044,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84A48611-CB09-418E-BE65-36472B8ED09C}" type="CELLRANGE">
+                    <a:fld id="{F1E38DF3-48C3-4A2F-86BA-FC9D21E923EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -982,7 +1078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{695A9AC6-2DEF-4758-8B56-348E41270366}" type="CELLRANGE">
+                    <a:fld id="{D32775C9-5B21-4F17-99AA-102636471D21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1016,7 +1112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F951AD47-7B06-4922-9653-6CFFF7B0657C}" type="CELLRANGE">
+                    <a:fld id="{D36459FA-484A-466F-A2A1-4349E76A3C25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1050,7 +1146,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20047452-1475-4B91-9C2E-E9437F0AA67A}" type="CELLRANGE">
+                    <a:fld id="{1DD0BC01-FA01-4825-80AC-E9375C8C6D34}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1084,7 +1180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{742A28AE-F176-492B-A8F2-3574FB106B52}" type="CELLRANGE">
+                    <a:fld id="{C84F81F8-5B78-4892-B3C8-B81CEFA2DDC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1118,7 +1214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47C073CE-C0EC-4FD8-9B77-1C92B785AD16}" type="CELLRANGE">
+                    <a:fld id="{9535B806-15A2-48E6-A995-A67522797AB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1152,7 +1248,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5008ACFC-F22D-4F11-9AC0-CA584D4D21B1}" type="CELLRANGE">
+                    <a:fld id="{53C48466-7E5B-445A-AF05-CA983596B38C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1186,7 +1282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2941E69F-31C4-45C7-AED4-46A250C2C3B1}" type="CELLRANGE">
+                    <a:fld id="{E36B159F-B530-4D51-AB46-E923969C401A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1220,7 +1316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBD70E05-750F-4764-8B62-03F2A0C171BF}" type="CELLRANGE">
+                    <a:fld id="{F4A326C9-00E7-4BDF-84E4-DE5A7BB0627B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1254,7 +1350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A085BBA-EE42-4CFC-A636-02F8704F478A}" type="CELLRANGE">
+                    <a:fld id="{5F55656A-B4E8-4378-B8CE-FAD1CFE69EEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1288,7 +1384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2A95343-F15A-4014-84EC-7DF1A99C8760}" type="CELLRANGE">
+                    <a:fld id="{2FE832BD-FABF-4A9D-B46A-F8DB8D3D80FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1322,7 +1418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83F8741F-B9FD-43CA-AA04-EC7AEB7C1356}" type="CELLRANGE">
+                    <a:fld id="{2D6DB97C-3BD5-476E-8204-0C3F26C1F33D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3218,25 +3314,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147213B5-EE2A-48F5-B604-A0A0D2D7B298}">
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A226" sqref="A226:XFD234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3274,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D109" si="0">A2&amp;" "&amp;B2&amp;":"&amp;C2</f>
+        <f t="shared" ref="D2:D120" si="0">A2&amp;" "&amp;B2&amp;":"&amp;C2</f>
         <v>FA 14:0</v>
       </c>
       <c r="E2" s="4">
@@ -3298,7 +3394,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3322,7 +3418,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3346,7 +3442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3370,7 +3466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -3395,7 +3491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3419,7 +3515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3443,7 +3539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3467,7 +3563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -3495,7 +3591,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3519,7 +3615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3546,7 +3642,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3570,7 +3666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3594,7 +3690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -3619,7 +3715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -3653,7 +3749,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -3685,7 +3781,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3720,7 +3816,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -3752,7 +3848,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -3784,7 +3880,7 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3816,7 +3912,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -3848,7 +3944,7 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -3887,7 +3983,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3918,7 +4014,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -3942,14 +4038,24 @@
       <c r="G25" t="s">
         <v>104</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1024</v>
+      </c>
       <c r="N25" s="8"/>
       <c r="P25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3976,7 +4082,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4004,7 +4110,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4031,7 +4137,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1">
         <f>AVERAGE(16.89,16.93)</f>
@@ -4052,13 +4158,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J29" s="2">
         <v>1994</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L29" s="1">
         <v>1876</v>
@@ -4068,7 +4174,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4092,19 +4198,19 @@
         <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J30" s="2">
         <v>1924</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L30" s="2">
         <v>1792</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4115,7 +4221,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31" s="1">
         <f>AVERAGE(15.64,15.68)</f>
@@ -4125,19 +4231,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J31" s="2">
         <v>1846</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L31" s="2">
         <v>1744</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4159,7 +4265,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4170,7 +4276,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E33" s="1">
         <f>AVERAGE(17.18,17.13)</f>
@@ -4180,22 +4286,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J33" s="2">
         <v>2026</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L33" s="2">
         <v>1908</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +4312,7 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E34" s="1">
         <v>16.329999999999998</v>
@@ -4215,13 +4321,13 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L34" s="2">
         <v>1810</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -4242,7 +4348,7 @@
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -4253,7 +4359,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" s="1">
         <f>AVERAGE(15.73, 15.73, 15.69)</f>
@@ -4266,19 +4372,19 @@
         <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J36" s="2">
         <v>1842</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L36" s="2">
         <v>1738</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E37" s="1">
         <f>AVERAGE(15.11,15.15)</f>
@@ -4299,19 +4405,19 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J37" s="2">
         <v>1784</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L37" s="2">
         <v>1668</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -4322,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E38" s="1">
         <f>AVERAGE(14.53,14.61)</f>
@@ -4332,19 +4438,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J38" s="2">
         <v>1706</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L38" s="2">
         <v>1610</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -4367,7 +4473,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E40" s="1">
         <f>AVERAGE(18.63,18.63)</f>
@@ -4388,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L40" s="2">
         <v>2078</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -4417,7 +4523,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -4441,8 +4547,14 @@
       <c r="G42" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L42" s="2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -4467,7 +4579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -4492,7 +4604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -4516,8 +4628,14 @@
       <c r="G45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" s="2">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -4542,7 +4660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -4563,2087 +4681,4210 @@
       <c r="F47" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>137</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
+        <v>PC 32:1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="F48" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 32:2</v>
+      </c>
+      <c r="E49" s="6">
+        <f>AVERAGE(15.53,15.64)</f>
+        <v>15.585000000000001</v>
+      </c>
+      <c r="F49" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 32:3</v>
+      </c>
+      <c r="E50" s="6">
+        <v>15.01</v>
+      </c>
+      <c r="F50" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 33:2</v>
+      </c>
+      <c r="E51" s="6">
+        <f>AVERAGE(16.02,16.11)</f>
+        <v>16.064999999999998</v>
+      </c>
+      <c r="F51" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 33:3</v>
+      </c>
+      <c r="E52" s="6">
+        <f>AVERAGE(15.45,15.52)</f>
+        <v>15.484999999999999</v>
+      </c>
+      <c r="F52" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>34</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 34:0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="F53" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
         <v>PC 34:1</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E54" s="1">
         <f>AVERAGE(17.04,17.11)</f>
         <v>17.074999999999999</v>
       </c>
-      <c r="F48" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="F54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>141</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>9</v>
       </c>
-      <c r="B49">
+      <c r="B55">
         <v>34</v>
       </c>
-      <c r="C49">
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D55" t="str">
         <f t="shared" si="0"/>
         <v>PC 34:2</v>
       </c>
-      <c r="E49" s="1">
-        <f>AVERAGE(16.48,16.48,16.45,1.53)</f>
-        <v>12.734999999999999</v>
-      </c>
-      <c r="F49" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="E55" s="4">
+        <f>AVERAGE(16.48,16.48,16.45,16.53)</f>
+        <v>16.484999999999999</v>
+      </c>
+      <c r="F55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="K55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B50">
+      <c r="B56">
         <v>34</v>
       </c>
-      <c r="C50">
+      <c r="C56">
         <v>3</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D56" t="str">
         <f t="shared" si="0"/>
         <v>PC 34:3</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E56" s="1">
         <f>AVERAGE(15.87,15.78)</f>
         <v>15.824999999999999</v>
       </c>
-      <c r="F50" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="F56" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>9</v>
       </c>
-      <c r="B51">
+      <c r="B57">
+        <v>34</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 34:4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>15.18</v>
+      </c>
+      <c r="F57" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
         <v>35</v>
       </c>
-      <c r="C51">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 35:1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="F58" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>35</v>
+      </c>
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D59" t="str">
         <f t="shared" si="0"/>
         <v>PC 35:2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E59" s="1">
         <f>AVERAGE(16.86,16.93)</f>
         <v>16.895</v>
       </c>
-      <c r="F51" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="F59" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>9</v>
       </c>
-      <c r="B52">
+      <c r="B60">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 35:3</v>
+      </c>
+      <c r="E60" s="6">
+        <v>16.43</v>
+      </c>
+      <c r="F60" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 35:4</v>
+      </c>
+      <c r="E61" s="6">
+        <v>15.62</v>
+      </c>
+      <c r="F61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 35:5</v>
+      </c>
+      <c r="E62" s="6">
+        <v>14.99</v>
+      </c>
+      <c r="F62" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
         <v>36</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>PC 36:1</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="1">
         <f>AVERAGE(17.77,17.84)</f>
         <v>17.805</v>
       </c>
-      <c r="F52" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="F63" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J63" s="2">
+        <v>2116</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B53">
+      <c r="B64">
         <v>36</v>
       </c>
-      <c r="C53">
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>PC 36:2</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="1">
         <f>AVERAGE(17.27,17.28,17.24,17.32)</f>
         <v>17.277499999999996</v>
       </c>
-      <c r="F53" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="F64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
         <v>35</v>
       </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="I64" t="s">
+        <v>147</v>
+      </c>
+      <c r="J64" s="2">
+        <v>2040</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>9</v>
       </c>
-      <c r="B54">
+      <c r="B65">
         <v>36</v>
       </c>
-      <c r="C54">
+      <c r="C65">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D65" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E65" s="1">
         <f>AVERAGE(16.55,16.63)</f>
         <v>16.59</v>
       </c>
-      <c r="F54" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="F65" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B55">
+      <c r="B66">
         <v>36</v>
       </c>
-      <c r="C55">
+      <c r="C66">
         <v>3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D66" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E66" s="1">
         <f>AVERAGE(16.75,16.82)</f>
         <v>16.785</v>
       </c>
-      <c r="F55" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="F66" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>9</v>
       </c>
-      <c r="B56">
+      <c r="B67">
         <v>36</v>
       </c>
-      <c r="C56">
+      <c r="C67">
         <v>4</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>PC 36:4</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="D67" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="1">
         <f>AVERAGE(15.95,15.96,15.92,16.02)</f>
         <v>15.962499999999999</v>
       </c>
-      <c r="F56" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F67" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
         <v>39</v>
       </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="I67" t="s">
+        <v>172</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1886</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B57">
+      <c r="B68">
         <v>36</v>
       </c>
-      <c r="C57">
+      <c r="C68">
         <v>5</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>PC 36:5</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="D68" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="1">
         <f>AVERAGE(15.36,15.36,15.32,15.43)</f>
         <v>15.3675</v>
       </c>
-      <c r="F57" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="F68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
       </c>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="I68" t="s">
+        <v>174</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1822</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>9</v>
       </c>
-      <c r="B58">
+      <c r="B69">
         <v>36</v>
       </c>
-      <c r="C58">
+      <c r="C69">
         <v>6</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>PC 36:6</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="D69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E69" s="1">
         <f>AVERAGE(14.68,14.8)</f>
         <v>14.74</v>
       </c>
-      <c r="F58" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="F69" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>147</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1750</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 38:2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>18</v>
+      </c>
+      <c r="F70" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L70" s="2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>38</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="0"/>
+        <v>PC 38:3</v>
+      </c>
+      <c r="E71" s="6">
+        <f>AVERAGE(17.29,17.36)</f>
+        <v>17.324999999999999</v>
+      </c>
+      <c r="F71" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="6">
+        <f>AVERAGE(8.19,8.49)</f>
+        <v>8.34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>152</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1010</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L72" s="2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>23</v>
       </c>
-      <c r="B59">
+      <c r="B73">
         <v>32</v>
       </c>
-      <c r="C59">
+      <c r="C73">
         <v>2</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D73" t="str">
         <f t="shared" si="0"/>
         <v>PE 32:2</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E73" s="6">
         <v>15.88</v>
       </c>
-      <c r="F59" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>148</v>
-      </c>
-      <c r="J59" s="2">
+      <c r="F73" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>146</v>
+      </c>
+      <c r="J73" s="2">
         <v>1860</v>
       </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>23</v>
       </c>
-      <c r="B60">
+      <c r="B74">
         <v>34</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 34:1</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="1">
         <f>AVERAGE(17.26,17.32)</f>
         <v>17.29</v>
       </c>
-      <c r="F60" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" t="s">
-        <v>151</v>
-      </c>
-      <c r="J60" s="2">
+      <c r="F74" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" t="s">
+        <v>149</v>
+      </c>
+      <c r="J74" s="2">
         <v>2050</v>
       </c>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="K74" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>23</v>
       </c>
-      <c r="B61">
+      <c r="B75">
         <v>34</v>
       </c>
-      <c r="C61">
+      <c r="C75">
         <v>2</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 34:2</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="1">
         <f>AVERAGE(16.72,16.72,16.67,16.75)</f>
         <v>16.715</v>
       </c>
-      <c r="F61" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F75" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
         <v>26</v>
       </c>
-      <c r="I61" t="s">
-        <v>151</v>
-      </c>
-      <c r="J61" s="2">
+      <c r="I75" t="s">
+        <v>149</v>
+      </c>
+      <c r="J75" s="2">
         <v>1984</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="K75" t="s">
+        <v>155</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>23</v>
       </c>
-      <c r="B62">
+      <c r="B76">
         <v>34</v>
       </c>
-      <c r="C62">
+      <c r="C76">
         <v>3</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 34:3</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="1">
         <f>AVERAGE(16.13,16.16,16.11,16.2)</f>
         <v>16.149999999999999</v>
       </c>
-      <c r="F62" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F76" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
         <v>30</v>
       </c>
-      <c r="I62" t="s">
-        <v>150</v>
-      </c>
-      <c r="J62" s="2">
+      <c r="I76" t="s">
+        <v>148</v>
+      </c>
+      <c r="J76" s="2">
         <v>1916</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="K76" t="s">
+        <v>137</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>23</v>
       </c>
-      <c r="B63">
+      <c r="B77">
         <v>36</v>
       </c>
-      <c r="C63">
+      <c r="C77">
         <v>2</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 36:2</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="1">
         <f>AVERAGE(17.49,17.5,17.45,17.52)</f>
         <v>17.489999999999998</v>
       </c>
-      <c r="F63" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F77" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
         <v>41</v>
       </c>
-      <c r="I63" t="s">
-        <v>154</v>
-      </c>
-      <c r="J63" s="2">
+      <c r="I77" t="s">
+        <v>152</v>
+      </c>
+      <c r="J77" s="2">
         <v>2082</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="K77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>23</v>
       </c>
-      <c r="B64">
+      <c r="B78">
         <v>36</v>
       </c>
-      <c r="C64">
+      <c r="C78">
         <v>3</v>
       </c>
-      <c r="D64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="1">
         <f>AVERAGE(16.81,16.8,16.77,16.84)</f>
         <v>16.805</v>
       </c>
-      <c r="F64" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F78" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
         <v>29</v>
       </c>
-      <c r="I64" t="s">
-        <v>153</v>
-      </c>
-      <c r="J64" s="2">
+      <c r="I78" t="s">
+        <v>151</v>
+      </c>
+      <c r="J78" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="K78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>23</v>
       </c>
-      <c r="B65">
+      <c r="B79">
         <v>36</v>
       </c>
-      <c r="C65">
+      <c r="C79">
         <v>3</v>
       </c>
-      <c r="D65" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="1">
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="1">
         <f>AVERAGE(16.95,17.03)</f>
         <v>16.990000000000002</v>
       </c>
-      <c r="F65" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>152</v>
-      </c>
-      <c r="J65" s="2">
+      <c r="F79" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J79" s="2">
         <v>1998</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="K79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>23</v>
       </c>
-      <c r="B66">
+      <c r="B80">
         <v>36</v>
       </c>
-      <c r="C66">
+      <c r="C80">
         <v>4</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 36:4</v>
-      </c>
-      <c r="E66" s="1">
+      <c r="D80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" s="1">
         <f>AVERAGE(16.18,16.19,16.15,16.25)</f>
         <v>16.192500000000003</v>
       </c>
-      <c r="F66" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F80" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
         <v>42</v>
       </c>
-      <c r="I66" t="s">
-        <v>149</v>
-      </c>
-      <c r="J66" s="2">
+      <c r="I80" t="s">
+        <v>147</v>
+      </c>
+      <c r="J80" s="2">
         <v>1922</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="K80" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>23</v>
       </c>
-      <c r="B67">
+      <c r="B81">
         <v>36</v>
       </c>
-      <c r="C67">
+      <c r="C81">
         <v>5</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 36:5</v>
-      </c>
-      <c r="E67" s="1">
+      <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="1">
         <f>AVERAGE(15.57,15.6,15.55,15.66)</f>
         <v>15.594999999999999</v>
       </c>
-      <c r="F67" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F81" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
         <v>28</v>
       </c>
-      <c r="I67" t="s">
-        <v>152</v>
-      </c>
-      <c r="J67" s="2">
+      <c r="I81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J81" s="2">
         <v>1834</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="K81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B68">
+      <c r="B82">
         <v>36</v>
       </c>
-      <c r="C68">
+      <c r="C82">
         <v>6</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 36:6</v>
-      </c>
-      <c r="E68" s="1">
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="1">
         <f>AVERAGE(14.93,15.04)</f>
         <v>14.984999999999999</v>
       </c>
-      <c r="F68" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>128</v>
-      </c>
-      <c r="J68" s="2">
+      <c r="F82" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>126</v>
+      </c>
+      <c r="J82" s="2">
         <v>1764</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="K82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>23</v>
       </c>
-      <c r="B69">
+      <c r="B83">
         <v>38</v>
       </c>
-      <c r="C69">
+      <c r="C83">
         <v>2</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 38:2</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="1">
         <f>AVERAGE(18.15,18.21)</f>
         <v>18.18</v>
       </c>
-      <c r="F69" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>149</v>
-      </c>
-      <c r="J69" s="2">
+      <c r="F83" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>147</v>
+      </c>
+      <c r="J83" s="2">
         <v>2160</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="K83" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L83" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>23</v>
       </c>
-      <c r="B70">
+      <c r="B84">
         <v>40</v>
       </c>
-      <c r="C70">
+      <c r="C84">
         <v>2</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 40:2</v>
-      </c>
-      <c r="E70" s="1">
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="1">
         <f>AVERAGE(18.77,18.82)</f>
         <v>18.795000000000002</v>
       </c>
-      <c r="F70" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>151</v>
-      </c>
-      <c r="J70" s="2">
+      <c r="F84" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>149</v>
+      </c>
+      <c r="J84" s="2">
         <v>2228</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="K84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>23</v>
       </c>
-      <c r="B71">
+      <c r="B85">
         <v>40</v>
       </c>
-      <c r="C71">
+      <c r="C85">
         <v>3</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 40:3</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="D85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" s="1">
         <v>18.41</v>
       </c>
-      <c r="F71" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="s">
-        <v>127</v>
-      </c>
-      <c r="J71" s="2">
+      <c r="F85" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>125</v>
+      </c>
+      <c r="J85" s="2">
         <v>2184</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="K85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L85" s="2">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>23</v>
       </c>
-      <c r="B72">
+      <c r="B86">
         <v>41</v>
       </c>
-      <c r="C72">
+      <c r="C86">
         <v>2</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 41:2</v>
-      </c>
-      <c r="E72" s="1">
+      <c r="D86" t="s">
+        <v>165</v>
+      </c>
+      <c r="E86" s="1">
         <f>AVERAGE(19.06,19.11)</f>
         <v>19.085000000000001</v>
       </c>
-      <c r="F72" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="F86" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>23</v>
       </c>
-      <c r="B73">
+      <c r="B87">
         <v>42</v>
       </c>
-      <c r="C73">
+      <c r="C87">
         <v>2</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 42:2</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="D87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="1">
         <f>AVERAGE(19.33,19.38)</f>
         <v>19.354999999999997</v>
       </c>
-      <c r="F73" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>155</v>
-      </c>
-      <c r="J73" s="2">
+      <c r="F87" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>153</v>
+      </c>
+      <c r="J87" s="2">
         <v>2286</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="K87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L87" s="2">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>23</v>
       </c>
-      <c r="B74">
+      <c r="B88">
         <v>43</v>
       </c>
-      <c r="C74">
+      <c r="C88">
         <v>2</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="0"/>
-        <v>PE 43:2</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="D88" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="1">
         <v>19.64</v>
       </c>
-      <c r="F74" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
-        <v>127</v>
-      </c>
-      <c r="J74" s="2">
+      <c r="F88" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>125</v>
+      </c>
+      <c r="J88" s="2">
         <v>2326</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="K88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L88" s="2">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>105</v>
       </c>
-      <c r="B75">
+      <c r="B89">
         <v>17</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="str">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="str">
         <f t="shared" si="0"/>
         <v>LPG 17:1</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E89" s="1">
         <v>6.79</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F89" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G89" t="s">
         <v>106</v>
       </c>
-      <c r="H75" t="s">
-        <v>121</v>
-      </c>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="N75" s="8"/>
-      <c r="P75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="H89" t="s">
+        <v>119</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="N89" s="8"/>
+      <c r="P89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>24</v>
       </c>
-      <c r="B76">
+      <c r="B90">
         <v>32</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76" t="str">
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="str">
         <f t="shared" si="0"/>
         <v>PG 32:0</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E90" s="1">
         <f>AVERAGE(16.3,16.35)</f>
         <v>16.325000000000003</v>
       </c>
-      <c r="F76" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="N76" s="8"/>
-      <c r="P76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="F90" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="N90" s="8"/>
+      <c r="P90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B77">
+      <c r="B91">
         <v>34</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77" t="str">
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91" t="str">
         <f t="shared" si="0"/>
         <v>PG 34:0</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E91" s="1">
         <f>AVERAGE(17.07,17.11)</f>
         <v>17.09</v>
       </c>
-      <c r="F77" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="N77" s="8"/>
-      <c r="P77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="F91" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="N91" s="8"/>
+      <c r="P91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>24</v>
       </c>
-      <c r="B78">
+      <c r="B92">
         <v>34</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="str">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="str">
         <f t="shared" si="0"/>
         <v>PG 34:1</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E92" s="1">
         <f>AVERAGE(16.4,16.45)</f>
         <v>16.424999999999997</v>
       </c>
-      <c r="F78" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="N78" s="8"/>
-      <c r="P78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="F92" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="N92" s="8"/>
+      <c r="P92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>24</v>
       </c>
-      <c r="B79">
+      <c r="B93">
         <v>34</v>
       </c>
-      <c r="C79">
+      <c r="C93">
         <v>2</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D93" t="str">
         <f t="shared" si="0"/>
         <v>PG 34:2</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E93" s="1">
         <f>AVERAGE(15.84,15.85,15.81,15.87)</f>
         <v>15.842499999999999</v>
       </c>
-      <c r="F79" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F93" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>24</v>
       </c>
-      <c r="B80">
+      <c r="B94">
         <v>34</v>
       </c>
-      <c r="C80">
+      <c r="C94">
         <v>3</v>
       </c>
-      <c r="D80" t="str">
+      <c r="D94" t="str">
         <f t="shared" si="0"/>
         <v>PG 34:3</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E94" s="1">
         <f>AVERAGE(15.28,15.28,15.24,15.31)</f>
         <v>15.2775</v>
       </c>
-      <c r="F80" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F94" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>24</v>
       </c>
-      <c r="B81">
+      <c r="B95">
         <v>36</v>
       </c>
-      <c r="C81">
+      <c r="C95">
         <v>3</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D95" t="str">
         <f t="shared" si="0"/>
         <v>PG 36:3</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E95" s="1">
         <f>AVERAGE(15.97,15.97)</f>
         <v>15.97</v>
       </c>
-      <c r="F81" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F95" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>24</v>
       </c>
-      <c r="B82">
+      <c r="B96">
         <v>36</v>
       </c>
-      <c r="C82">
+      <c r="C96">
         <v>4</v>
       </c>
-      <c r="D82" t="str">
+      <c r="D96" t="str">
         <f t="shared" si="0"/>
         <v>PG 36:4</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E96" s="1">
         <f>AVERAGE(15.31,15.32)</f>
         <v>15.315000000000001</v>
       </c>
-      <c r="F82" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F96" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>52</v>
       </c>
-      <c r="B83">
+      <c r="B97">
         <v>16</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="str">
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97" t="str">
         <f t="shared" si="0"/>
         <v>LPI 16:0</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E97" s="1">
         <f>AVERAGE(6.74,6.77)</f>
         <v>6.7549999999999999</v>
       </c>
-      <c r="F83" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F97" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>52</v>
       </c>
-      <c r="B84">
+      <c r="B98">
         <v>17</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="str">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="str">
         <f t="shared" si="0"/>
         <v>LPI 17:1</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E98" s="1">
         <v>6.12</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F98" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G98" t="s">
         <v>107</v>
       </c>
-      <c r="H84" t="s">
-        <v>122</v>
-      </c>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-      <c r="N84" s="8"/>
-      <c r="P84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="H98" t="s">
+        <v>120</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="N98" s="8"/>
+      <c r="P98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>52</v>
       </c>
-      <c r="B85">
+      <c r="B99">
         <v>18</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" t="str">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="str">
         <f t="shared" si="0"/>
         <v>LPI 18:0</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E99" s="1">
         <f>AVERAGE(9.09,9.13)</f>
         <v>9.11</v>
       </c>
-      <c r="F85" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="F99" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>52</v>
       </c>
-      <c r="B86">
+      <c r="B100">
         <v>18</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="str">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="str">
         <f t="shared" si="0"/>
         <v>LPI 18:1</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E100" s="1">
         <f>AVERAGE(7.35,7.38)</f>
         <v>7.3650000000000002</v>
       </c>
-      <c r="F86" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="F100" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>52</v>
       </c>
-      <c r="B87">
+      <c r="B101">
         <v>18</v>
       </c>
-      <c r="C87">
+      <c r="C101">
         <v>2</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D101" t="str">
         <f t="shared" si="0"/>
         <v>LPI 18:2</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E101" s="1">
         <f>AVERAGE(5.77,5.8)</f>
         <v>5.7850000000000001</v>
       </c>
-      <c r="F87" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F101" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>10</v>
       </c>
-      <c r="B88">
+      <c r="B102">
         <v>32</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" t="str">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="str">
         <f t="shared" si="0"/>
         <v>PI 32:0</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E102" s="1">
         <f>AVERAGE(16.06,16.12)</f>
         <v>16.09</v>
       </c>
-      <c r="F88" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="F102" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>10</v>
       </c>
-      <c r="B89">
+      <c r="B103">
         <v>34</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="str">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="str">
         <f t="shared" si="0"/>
         <v>PI 34:1</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E103" s="1">
         <f>AVERAGE(16.19,16.26)</f>
         <v>16.225000000000001</v>
       </c>
-      <c r="F89" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="F103" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="B90">
+      <c r="B104">
         <v>34</v>
       </c>
-      <c r="C90">
+      <c r="C104">
         <v>2</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D104" t="str">
         <f t="shared" si="0"/>
         <v>PI 34:2</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E104" s="1">
         <f>AVERAGE(15.59,15.62,15.57,15.64)</f>
         <v>15.605</v>
       </c>
-      <c r="F90" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="F104" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>10</v>
       </c>
-      <c r="B91">
+      <c r="B105">
         <v>34</v>
       </c>
-      <c r="C91">
+      <c r="C105">
         <v>3</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D105" t="str">
         <f t="shared" si="0"/>
         <v>PI 34:3</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E105" s="1">
         <f>AVERAGE(14.99,15.08)</f>
         <v>15.035</v>
       </c>
-      <c r="F91" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="F105" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>10</v>
       </c>
-      <c r="B92">
+      <c r="B106">
         <v>36</v>
       </c>
-      <c r="C92">
+      <c r="C106">
         <v>2</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D106" t="str">
         <f t="shared" si="0"/>
         <v>PI 36:2</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E106" s="1">
         <f>AVERAGE(16.45,16.48,16.42,16.49)</f>
         <v>16.46</v>
       </c>
-      <c r="F92" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="F106" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>10</v>
       </c>
-      <c r="B93">
+      <c r="B107">
         <v>36</v>
       </c>
-      <c r="C93">
+      <c r="C107">
         <v>3</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D107" t="str">
         <f t="shared" si="0"/>
         <v>PI 36:3</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E107" s="1">
         <f>AVERAGE(15.73,15.73,15.97)</f>
         <v>15.81</v>
       </c>
-      <c r="F93" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="F107" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>10</v>
       </c>
-      <c r="B94">
+      <c r="B108">
         <v>36</v>
       </c>
-      <c r="C94">
+      <c r="C108">
         <v>4</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D108" t="str">
         <f t="shared" si="0"/>
         <v>PI 36:4</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E108" s="1">
         <f>AVERAGE(15.08,15.08,15.04,15.13)</f>
         <v>15.082500000000001</v>
       </c>
-      <c r="F94" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F108" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>10</v>
       </c>
-      <c r="B95">
+      <c r="B109">
         <v>36</v>
       </c>
-      <c r="C95">
+      <c r="C109">
         <v>5</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D109" t="str">
         <f t="shared" si="0"/>
         <v>PI 36:5</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E109" s="1">
         <f>AVERAGE(14.42,14.51)</f>
         <v>14.465</v>
       </c>
-      <c r="F95" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="F109" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B96">
+      <c r="B110">
         <v>17</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96" t="str">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="str">
         <f t="shared" si="0"/>
         <v>LPS 17:1</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E110" s="1">
         <v>6.17</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F110" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G110" t="s">
         <v>109</v>
       </c>
-      <c r="H96" t="s">
-        <v>122</v>
-      </c>
-      <c r="I96"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96"/>
-      <c r="N96" s="4"/>
-      <c r="O96"/>
-      <c r="P96" s="1"/>
-      <c r="Q96"/>
-      <c r="R96"/>
-      <c r="S96"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="H110" t="s">
+        <v>120</v>
+      </c>
+      <c r="I110"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110"/>
+      <c r="N110" s="4"/>
+      <c r="O110"/>
+      <c r="P110" s="1"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>21</v>
       </c>
-      <c r="B97">
+      <c r="B111">
         <v>34</v>
       </c>
-      <c r="C97">
+      <c r="C111">
         <v>2</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D111" t="str">
         <f t="shared" si="0"/>
         <v>PS 34:2</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E111" s="1">
         <f>AVERAGE(15.7,15.71,15.73)</f>
         <v>15.713333333333333</v>
       </c>
-      <c r="F97" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="F111" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>21</v>
       </c>
-      <c r="B98">
+      <c r="B112">
         <v>36</v>
       </c>
-      <c r="C98">
+      <c r="C112">
         <v>3</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D112" t="str">
         <f t="shared" si="0"/>
         <v>PS 36:3</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E112" s="1">
         <v>15.81</v>
       </c>
-      <c r="F98" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="F112" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
         <v>44</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H112" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>21</v>
       </c>
-      <c r="B99">
+      <c r="B113">
         <v>36</v>
       </c>
-      <c r="C99">
+      <c r="C113">
         <v>4</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D113" t="str">
         <f t="shared" si="0"/>
         <v>PS 36:4</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E113" s="1">
         <f>AVERAGE(15.17,15.18)</f>
         <v>15.175000000000001</v>
       </c>
-      <c r="F99" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="F113" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>21</v>
       </c>
-      <c r="B100">
+      <c r="B114">
         <v>38</v>
       </c>
-      <c r="C100">
+      <c r="C114">
         <v>2</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D114" t="str">
         <f t="shared" si="0"/>
         <v>PS 38:2</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E114" s="1">
         <f>AVERAGE(17.28,17.32)</f>
         <v>17.3</v>
       </c>
-      <c r="F100" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="F114" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>21</v>
       </c>
-      <c r="B101">
+      <c r="B115">
         <v>40</v>
       </c>
-      <c r="C101">
+      <c r="C115">
         <v>3</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D115" t="str">
         <f t="shared" si="0"/>
         <v>PS 40:3</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E115" s="1">
         <f>AVERAGE(17.53,17.58)</f>
         <v>17.555</v>
       </c>
-      <c r="F101" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="F115" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>78</v>
       </c>
-      <c r="B102">
+      <c r="B116">
         <v>34</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102" t="str">
-        <f t="shared" si="0"/>
-        <v>MGDG 34:0</v>
-      </c>
-      <c r="E102" s="1">
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="1">
         <f>AVERAGE(18.23,18.29)</f>
         <v>18.259999999999998</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F116" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G116" t="s">
         <v>110</v>
       </c>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="N102" s="8"/>
-      <c r="P102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="K116" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L116" s="1">
+        <v>2016</v>
+      </c>
+      <c r="N116" s="8"/>
+      <c r="P116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>78</v>
       </c>
-      <c r="B103">
+      <c r="B117">
         <v>34</v>
       </c>
-      <c r="C103">
+      <c r="C117">
         <v>4</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D117" t="str">
         <f t="shared" si="0"/>
         <v>MGDG 34:4</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E117" s="1">
         <f>AVERAGE(15.86,15.86,15.87)</f>
         <v>15.863333333333332</v>
       </c>
-      <c r="F103" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="F117" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>78</v>
       </c>
-      <c r="B104">
+      <c r="B118">
         <v>34</v>
       </c>
-      <c r="C104">
+      <c r="C118">
         <v>5</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D118" t="str">
         <f t="shared" si="0"/>
         <v>MGDG 34:5</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E118" s="1">
         <f>AVERAGE(15.23,15.24)</f>
         <v>15.234999999999999</v>
       </c>
-      <c r="F104" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="F118" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>78</v>
       </c>
-      <c r="B105">
+      <c r="B119">
         <v>34</v>
       </c>
-      <c r="C105">
+      <c r="C119">
         <v>6</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D119" t="str">
         <f t="shared" si="0"/>
         <v>MGDG 34:6</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E119" s="1">
         <f>AVERAGE(14.57,14.58)</f>
         <v>14.574999999999999</v>
       </c>
-      <c r="F105" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
+      <c r="F119" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>78</v>
       </c>
-      <c r="B106">
+      <c r="B120">
         <v>36</v>
       </c>
-      <c r="C106">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="0"/>
+        <v>MGDG 36:0</v>
+      </c>
+      <c r="E120" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F120" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121">
+        <v>36</v>
+      </c>
+      <c r="C121">
         <v>2</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="0"/>
-        <v>MGDG 36:2</v>
-      </c>
-      <c r="E106" s="1">
+      <c r="D121" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="1">
         <v>17.71</v>
       </c>
-      <c r="F106" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="F121" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+      <c r="J121" s="2">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>78</v>
       </c>
-      <c r="B107">
+      <c r="B122">
         <v>36</v>
       </c>
-      <c r="C107">
+      <c r="C122">
         <v>3</v>
       </c>
-      <c r="D107" t="str">
-        <f t="shared" si="0"/>
-        <v>MGDG 36:3</v>
-      </c>
-      <c r="E107" s="1">
+      <c r="D122" t="s">
+        <v>179</v>
+      </c>
+      <c r="E122" s="1">
         <f>AVERAGE(17.17,17.23)</f>
         <v>17.200000000000003</v>
       </c>
-      <c r="F107" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="F122" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>135</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>78</v>
       </c>
-      <c r="B108">
+      <c r="B123">
         <v>36</v>
       </c>
-      <c r="C108">
+      <c r="C123">
         <v>4</v>
       </c>
-      <c r="D108" t="str">
-        <f t="shared" si="0"/>
-        <v>MGDG 36:4</v>
-      </c>
-      <c r="E108" s="1">
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+      <c r="E123" s="1">
         <f>AVERAGE(16.57,16.67)</f>
         <v>16.62</v>
       </c>
-      <c r="F108" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="F123" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>176</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1966</v>
+      </c>
+      <c r="K123" t="s">
+        <v>155</v>
+      </c>
+      <c r="L123" s="2">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>78</v>
       </c>
-      <c r="B109">
+      <c r="B124">
         <v>36</v>
       </c>
-      <c r="C109">
+      <c r="C124">
         <v>5</v>
       </c>
-      <c r="D109" t="str">
-        <f t="shared" si="0"/>
-        <v>MGDG 36:5</v>
-      </c>
-      <c r="E109" s="1">
+      <c r="D124" t="s">
+        <v>82</v>
+      </c>
+      <c r="E124" s="1">
         <f>AVERAGE(16.04,16.04,16,16.1)</f>
         <v>16.045000000000002</v>
       </c>
-      <c r="F109" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="F124" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1898</v>
+      </c>
+      <c r="K124" t="s">
+        <v>168</v>
+      </c>
+      <c r="L124" s="2">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>78</v>
       </c>
-      <c r="B110">
+      <c r="B125">
         <v>36</v>
       </c>
-      <c r="C110">
+      <c r="C125">
         <v>6</v>
       </c>
-      <c r="D110" t="str">
-        <f t="shared" ref="D110:D127" si="1">A110&amp;" "&amp;B110&amp;":"&amp;C110</f>
-        <v>MGDG 36:6</v>
-      </c>
-      <c r="E110" s="1">
+      <c r="D125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E125" s="1">
         <f>AVERAGE(15.43,15.43,15.41,15.5)</f>
         <v>15.442499999999999</v>
       </c>
-      <c r="F110" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F125" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="I125" t="s">
+        <v>148</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1828</v>
+      </c>
+      <c r="K125" t="s">
+        <v>138</v>
+      </c>
+      <c r="L125" s="2">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>71</v>
       </c>
-      <c r="B111">
+      <c r="B126">
         <v>34</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111" t="str">
-        <f t="shared" si="1"/>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" ref="D126:D189" si="1">A126&amp;" "&amp;B126&amp;":"&amp;C126</f>
         <v>DGDG 34:0</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E126" s="1">
         <f>AVERAGE(17.68,17.76)</f>
         <v>17.72</v>
       </c>
-      <c r="F111" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="F126" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>71</v>
       </c>
-      <c r="B112">
+      <c r="B127">
         <v>34</v>
       </c>
-      <c r="C112">
+      <c r="C127">
         <v>2</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D127" t="str">
         <f t="shared" si="1"/>
         <v>DGDG 34:2</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E127" s="1">
         <f>AVERAGE(16.48,16.55)</f>
         <v>16.515000000000001</v>
       </c>
-      <c r="F112" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="F127" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>71</v>
       </c>
-      <c r="B113">
+      <c r="B128">
         <v>34</v>
       </c>
-      <c r="C113">
+      <c r="C128">
         <v>3</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D128" t="str">
         <f t="shared" si="1"/>
         <v>DGDG 34:3</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E128" s="1">
         <f>AVERAGE(15.91,15.93,15.91,16)</f>
         <v>15.9375</v>
       </c>
-      <c r="F113" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="F128" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>71</v>
       </c>
-      <c r="B114">
+      <c r="B129">
         <v>34</v>
       </c>
-      <c r="C114">
+      <c r="C129">
         <v>4</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D129" t="str">
         <f t="shared" si="1"/>
         <v>DGDG 34:4</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E129" s="1">
         <f>AVERAGE(15.15,15.16)</f>
         <v>15.155000000000001</v>
       </c>
-      <c r="F114" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="F129" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>71</v>
       </c>
-      <c r="B115">
+      <c r="B130">
         <v>34</v>
       </c>
-      <c r="C115">
+      <c r="C130">
         <v>5</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D130" t="str">
         <f t="shared" si="1"/>
         <v>DGDG 34:5</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E130" s="1">
         <f>AVERAGE(14.5,14.53)</f>
         <v>14.515000000000001</v>
       </c>
-      <c r="F115" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="F130" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>71</v>
       </c>
-      <c r="B116">
+      <c r="B131">
         <v>34</v>
       </c>
-      <c r="C116">
+      <c r="C131">
         <v>6</v>
       </c>
-      <c r="D116" t="str">
+      <c r="D131" t="str">
         <f t="shared" si="1"/>
         <v>DGDG 34:6</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E131" s="1">
         <f>AVERAGE(13.83,13.84)</f>
         <v>13.835000000000001</v>
       </c>
-      <c r="F116" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="F131" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>71</v>
       </c>
-      <c r="B117">
+      <c r="B132">
         <v>36</v>
       </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117" t="str">
-        <f>A117&amp;" "&amp;B117&amp;":"&amp;C117</f>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132" t="str">
+        <f>A132&amp;" "&amp;B132&amp;":"&amp;C132</f>
         <v>DGDG 36:0</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E132" s="1">
         <v>18.38</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F132" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G132" t="s">
         <v>111</v>
       </c>
-      <c r="H117" t="s">
-        <v>123</v>
-      </c>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="N117" s="8"/>
-      <c r="P117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="H132" t="s">
+        <v>121</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="N132" s="8"/>
+      <c r="P132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>71</v>
       </c>
-      <c r="B118">
+      <c r="B133">
         <v>36</v>
       </c>
-      <c r="C118">
+      <c r="C133">
         <v>3</v>
       </c>
-      <c r="D118" t="str">
-        <f>A118&amp;" "&amp;B118&amp;":"&amp;C118</f>
+      <c r="D133" t="str">
+        <f>A133&amp;" "&amp;B133&amp;":"&amp;C133</f>
         <v>DGDG 36:3</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E133" s="1">
         <f>AVERAGE(16.77,16.84)</f>
         <v>16.805</v>
       </c>
-      <c r="F118" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="N118" s="8"/>
-      <c r="P118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="F133" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="N133" s="8"/>
+      <c r="P133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>71</v>
       </c>
-      <c r="B119">
+      <c r="B134">
         <v>36</v>
       </c>
-      <c r="C119">
+      <c r="C134">
         <v>4</v>
       </c>
-      <c r="D119" t="str">
-        <f>A119&amp;" "&amp;B119&amp;":"&amp;C119</f>
+      <c r="D134" t="str">
+        <f>A134&amp;" "&amp;B134&amp;":"&amp;C134</f>
         <v>DGDG 36:4</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E134" s="1">
         <f>AVERAGE(15.95,16.06)</f>
         <v>16.004999999999999</v>
       </c>
-      <c r="F119" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="N119" s="8"/>
-      <c r="P119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="F134" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="N134" s="8"/>
+      <c r="P134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>71</v>
       </c>
-      <c r="B120">
+      <c r="B135">
         <v>36</v>
       </c>
-      <c r="C120">
+      <c r="C135">
         <v>5</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D135" t="str">
         <f t="shared" si="1"/>
         <v>DGDG 36:5</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E135" s="1">
         <f>AVERAGE(15.38,15.39,15.36,15.46)</f>
         <v>15.397500000000001</v>
       </c>
-      <c r="F120" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="F135" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="K135" t="s">
+        <v>181</v>
+      </c>
+      <c r="L135" s="2">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>71</v>
       </c>
-      <c r="B121">
+      <c r="B136">
         <v>36</v>
       </c>
-      <c r="C121">
+      <c r="C136">
         <v>6</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D136" t="str">
         <f t="shared" si="1"/>
         <v>DGDG 36:6</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E136" s="1">
         <f>AVERAGE(14.75,14.76,14.72,14.83)</f>
         <v>14.764999999999999</v>
       </c>
-      <c r="F121" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="F136" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="I136" t="s">
+        <v>176</v>
+      </c>
+      <c r="J136" s="2">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>98</v>
       </c>
-      <c r="B122">
+      <c r="B137">
         <v>18</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122" t="str">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="str">
         <f t="shared" si="1"/>
         <v>MG 18:1</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E137" s="1">
         <v>11.15</v>
       </c>
-      <c r="F122" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="F137" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>32</v>
       </c>
-      <c r="B123">
+      <c r="B138">
         <v>36</v>
       </c>
-      <c r="C123">
+      <c r="C138">
         <v>2</v>
       </c>
-      <c r="D123" t="str">
+      <c r="D138" t="str">
         <f t="shared" si="1"/>
         <v>DG 36:2</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E138" s="1">
         <f>AVERAGE(18.66,18.66)</f>
         <v>18.66</v>
       </c>
-      <c r="F123" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G123" t="s">
+      <c r="F138" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>31</v>
       </c>
-      <c r="B124">
+      <c r="B139">
         <v>42</v>
       </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124" t="str">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139" t="str">
         <f t="shared" si="1"/>
         <v>TG 42:0</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E139" s="1">
         <v>20.71</v>
       </c>
-      <c r="F124" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="F139" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>31</v>
       </c>
-      <c r="B125">
+      <c r="B140">
         <v>48</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" t="str">
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="str">
         <f t="shared" si="1"/>
         <v>TG 48:0</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E140" s="1">
         <f>AVERAGE(21.77,21.75)</f>
         <v>21.759999999999998</v>
       </c>
-      <c r="F125" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="F140" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>31</v>
       </c>
-      <c r="B126">
+      <c r="B141">
         <v>50</v>
       </c>
-      <c r="C126">
+      <c r="C141">
         <v>2</v>
       </c>
-      <c r="D126" t="str">
+      <c r="D141" t="str">
         <f t="shared" si="1"/>
         <v>TG 50:2</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E141" s="1">
         <f>AVERAGE(21.51,21.49)</f>
         <v>21.5</v>
       </c>
-      <c r="F126" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="F141" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>31</v>
       </c>
-      <c r="B127">
+      <c r="B142">
         <v>54</v>
       </c>
-      <c r="C127">
+      <c r="C142">
         <v>3</v>
       </c>
-      <c r="D127" t="str">
+      <c r="D142" t="str">
         <f t="shared" si="1"/>
         <v>TG 54:3</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E142" s="1">
         <f>AVERAGE(21.8,21.83)</f>
         <v>21.814999999999998</v>
       </c>
-      <c r="F127" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F142" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143">
+        <v>32</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="1"/>
+        <v>DG 32:0</v>
+      </c>
+      <c r="E143" s="6">
+        <v>18.53</v>
+      </c>
+      <c r="F143" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144">
+        <v>32</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="1"/>
+        <v>DG 32:1</v>
+      </c>
+      <c r="E144" s="6">
+        <v>17.93</v>
+      </c>
+      <c r="F144" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145">
+        <v>34</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="1"/>
+        <v>DG 34:1</v>
+      </c>
+      <c r="E145" s="6">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="F145" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146">
+        <v>34</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="1"/>
+        <v>DG 34:2</v>
+      </c>
+      <c r="E146" s="6">
+        <v>18.13</v>
+      </c>
+      <c r="F146" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>32</v>
+      </c>
+      <c r="B147">
+        <v>34</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>184</v>
+      </c>
+      <c r="E147" s="6">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="F147" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148">
+        <v>34</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="6">
+        <v>17.59</v>
+      </c>
+      <c r="F148" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149">
+        <v>36</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" s="6">
+        <v>18.14</v>
+      </c>
+      <c r="F149" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>32</v>
+      </c>
+      <c r="B150">
+        <v>36</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>187</v>
+      </c>
+      <c r="E150" s="6">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="F150" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151">
+        <v>36</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="1"/>
+        <v>DG 36:4</v>
+      </c>
+      <c r="E151" s="6">
+        <v>17.61</v>
+      </c>
+      <c r="F151" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>32</v>
+      </c>
+      <c r="B152">
+        <v>36</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="1"/>
+        <v>DG 36:5</v>
+      </c>
+      <c r="E152" s="6">
+        <v>17.09</v>
+      </c>
+      <c r="F152" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153">
+        <f>18+22</f>
+        <v>40</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="1"/>
+        <v>DG 40:2</v>
+      </c>
+      <c r="E153" s="6">
+        <v>19.87</v>
+      </c>
+      <c r="F153" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154">
+        <f>12+16+18</f>
+        <v>46</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 46:1</v>
+      </c>
+      <c r="E154" s="6">
+        <v>21.12</v>
+      </c>
+      <c r="F154" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155">
+        <f>12+16+18</f>
+        <v>46</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 46:2</v>
+      </c>
+      <c r="E155" s="6">
+        <v>20.8</v>
+      </c>
+      <c r="F155" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156">
+        <v>46</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 46:3</v>
+      </c>
+      <c r="E156" s="6">
+        <v>20.57</v>
+      </c>
+      <c r="F156" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157">
+        <f>16*3</f>
+        <v>48</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 48:1</v>
+      </c>
+      <c r="E157" s="6">
+        <v>21.45</v>
+      </c>
+      <c r="F157" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158">
+        <v>48</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 48:2</v>
+      </c>
+      <c r="E158" s="6">
+        <v>21.16</v>
+      </c>
+      <c r="F158" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159">
+        <v>48</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 48:3</v>
+      </c>
+      <c r="E159" s="6">
+        <v>20.9</v>
+      </c>
+      <c r="F159" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160">
+        <v>48</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 48:4</v>
+      </c>
+      <c r="E160" s="6">
+        <v>20.52</v>
+      </c>
+      <c r="F160" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161">
+        <v>49</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 49:2</v>
+      </c>
+      <c r="E161" s="6">
+        <v>21.42</v>
+      </c>
+      <c r="F161" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>31</v>
+      </c>
+      <c r="B162">
+        <f>16+16+18</f>
+        <v>50</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 50:1</v>
+      </c>
+      <c r="E162" s="6">
+        <v>21.77</v>
+      </c>
+      <c r="F162" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>31</v>
+      </c>
+      <c r="B163">
+        <v>50</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 50:3</v>
+      </c>
+      <c r="E163" s="6">
+        <v>21.23</v>
+      </c>
+      <c r="F163" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>31</v>
+      </c>
+      <c r="B164">
+        <v>50</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 50:4</v>
+      </c>
+      <c r="E164" s="6">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 50:5</v>
+      </c>
+      <c r="E165" s="6">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166">
+        <v>50</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 50:6</v>
+      </c>
+      <c r="E166" s="6">
+        <v>20.329999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>31</v>
+      </c>
+      <c r="B167">
+        <f>16+17+18</f>
+        <v>51</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 51:2</v>
+      </c>
+      <c r="E167" s="6">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168">
+        <v>51</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 51:3</v>
+      </c>
+      <c r="E168" s="6">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169">
+        <v>51</v>
+      </c>
+      <c r="C169">
+        <v>5</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 51:5</v>
+      </c>
+      <c r="E169" s="6">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170">
+        <v>51</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 51:6</v>
+      </c>
+      <c r="E170" s="6">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171">
+        <f>16+18+18</f>
+        <v>52</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:0</v>
+      </c>
+      <c r="E171" s="6">
+        <v>22.33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B172">
+        <v>52</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:1</v>
+      </c>
+      <c r="E172" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>31</v>
+      </c>
+      <c r="B173">
+        <v>52</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:2</v>
+      </c>
+      <c r="E173" s="6">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174">
+        <v>52</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:3</v>
+      </c>
+      <c r="E174" s="6">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175">
+        <v>52</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:4</v>
+      </c>
+      <c r="E175" s="6">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>31</v>
+      </c>
+      <c r="B176">
+        <v>52</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:5</v>
+      </c>
+      <c r="E176" s="6">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>31</v>
+      </c>
+      <c r="B177">
+        <v>52</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:6</v>
+      </c>
+      <c r="E177" s="6">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>31</v>
+      </c>
+      <c r="B178">
+        <v>52</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 52:7</v>
+      </c>
+      <c r="E178" s="6">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>31</v>
+      </c>
+      <c r="B179">
+        <f>17+18+18</f>
+        <v>53</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 53:2</v>
+      </c>
+      <c r="E179" s="6">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180">
+        <v>53</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 53:3</v>
+      </c>
+      <c r="E180" s="6">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>31</v>
+      </c>
+      <c r="B181">
+        <v>53</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 53:4</v>
+      </c>
+      <c r="E181" s="6">
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182">
+        <v>53</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 53:5</v>
+      </c>
+      <c r="E182" s="6">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B183">
+        <v>53</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 53:6</v>
+      </c>
+      <c r="E183" s="6">
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184">
+        <v>53</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 53:7</v>
+      </c>
+      <c r="E184" s="6">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>31</v>
+      </c>
+      <c r="B185">
+        <f>16+18+20</f>
+        <v>54</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 54:0</v>
+      </c>
+      <c r="E185" s="6">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>31</v>
+      </c>
+      <c r="B186">
+        <v>54</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 54:1</v>
+      </c>
+      <c r="E186" s="6">
+        <v>22.33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>31</v>
+      </c>
+      <c r="B187">
+        <v>54</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 54:2</v>
+      </c>
+      <c r="E187" s="6">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>31</v>
+      </c>
+      <c r="B188">
+        <v>54</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+      <c r="D188" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 54:4</v>
+      </c>
+      <c r="E188" s="6">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189">
+        <v>54</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 54:5</v>
+      </c>
+      <c r="E189" s="6">
+        <v>21.27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>31</v>
+      </c>
+      <c r="B190">
+        <v>54</v>
+      </c>
+      <c r="C190">
+        <v>6</v>
+      </c>
+      <c r="D190" t="str">
+        <f t="shared" ref="D190:D225" si="2">A190&amp;" "&amp;B190&amp;":"&amp;C190</f>
+        <v>TG 54:6</v>
+      </c>
+      <c r="E190" s="6">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191">
+        <v>54</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 54:7</v>
+      </c>
+      <c r="E191" s="6">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>31</v>
+      </c>
+      <c r="B192">
+        <v>54</v>
+      </c>
+      <c r="C192">
+        <v>8</v>
+      </c>
+      <c r="D192" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 54:8</v>
+      </c>
+      <c r="E192" s="6">
+        <v>20.43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193">
+        <v>54</v>
+      </c>
+      <c r="C193">
+        <v>9</v>
+      </c>
+      <c r="D193" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 54:9</v>
+      </c>
+      <c r="E193" s="6">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194">
+        <v>55</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 55:2</v>
+      </c>
+      <c r="E194" s="6">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195">
+        <v>55</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+      <c r="D195" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 55:3</v>
+      </c>
+      <c r="E195" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196">
+        <v>55</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+      <c r="D196" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 55:4</v>
+      </c>
+      <c r="E196" s="6">
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197">
+        <v>55</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 55:6</v>
+      </c>
+      <c r="E197" s="6">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198">
+        <v>56</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 56:1</v>
+      </c>
+      <c r="E198" s="6">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+      <c r="B199">
+        <v>56</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 56:2</v>
+      </c>
+      <c r="E199" s="6">
+        <v>22.35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>31</v>
+      </c>
+      <c r="B200">
+        <v>56</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+      <c r="D200" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 56:3</v>
+      </c>
+      <c r="E200" s="6">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201">
+        <v>56</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+      <c r="D201" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 56:4</v>
+      </c>
+      <c r="E201" s="6">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>31</v>
+      </c>
+      <c r="B202">
+        <v>56</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 56:5</v>
+      </c>
+      <c r="E202" s="6">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>31</v>
+      </c>
+      <c r="B203">
+        <v>56</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 56:6</v>
+      </c>
+      <c r="E203" s="6">
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>31</v>
+      </c>
+      <c r="B204">
+        <v>57</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 57:1</v>
+      </c>
+      <c r="E204" s="6">
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>31</v>
+      </c>
+      <c r="B205">
+        <v>57</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 57:2</v>
+      </c>
+      <c r="E205" s="6">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>31</v>
+      </c>
+      <c r="B206">
+        <v>57</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+      <c r="D206" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 57:3</v>
+      </c>
+      <c r="E206" s="6">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>31</v>
+      </c>
+      <c r="B207">
+        <v>57</v>
+      </c>
+      <c r="C207">
+        <v>4</v>
+      </c>
+      <c r="D207" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 57:4</v>
+      </c>
+      <c r="E207" s="6">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>31</v>
+      </c>
+      <c r="B208">
+        <v>58</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 58:1</v>
+      </c>
+      <c r="E208" s="6">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>31</v>
+      </c>
+      <c r="B209">
+        <v>58</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 58:2</v>
+      </c>
+      <c r="E209" s="6">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>31</v>
+      </c>
+      <c r="B210">
+        <v>58</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 58:3</v>
+      </c>
+      <c r="E210" s="6">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>31</v>
+      </c>
+      <c r="B211">
+        <v>58</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 58:4</v>
+      </c>
+      <c r="E211" s="6">
+        <v>22.16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>31</v>
+      </c>
+      <c r="B212">
+        <v>58</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+      <c r="D212" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 58:5</v>
+      </c>
+      <c r="E212" s="6">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>31</v>
+      </c>
+      <c r="B213">
+        <v>58</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+      <c r="D213" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 58:6</v>
+      </c>
+      <c r="E213" s="6">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>31</v>
+      </c>
+      <c r="B214">
+        <v>59</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 59:2</v>
+      </c>
+      <c r="E214" s="6">
+        <v>22.69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>31</v>
+      </c>
+      <c r="B215">
+        <v>59</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 59:3</v>
+      </c>
+      <c r="E215" s="6">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>31</v>
+      </c>
+      <c r="B216">
+        <v>59</v>
+      </c>
+      <c r="C216">
+        <v>4</v>
+      </c>
+      <c r="D216" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 59:4</v>
+      </c>
+      <c r="E216" s="6">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>31</v>
+      </c>
+      <c r="B217">
+        <v>60</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 60:2</v>
+      </c>
+      <c r="E217" s="6">
+        <v>22.81</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>31</v>
+      </c>
+      <c r="B218">
+        <v>60</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 60:3</v>
+      </c>
+      <c r="E218" s="6">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>31</v>
+      </c>
+      <c r="B219">
+        <v>60</v>
+      </c>
+      <c r="C219">
+        <v>4</v>
+      </c>
+      <c r="D219" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 60:4</v>
+      </c>
+      <c r="E219" s="6">
+        <v>22.41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>31</v>
+      </c>
+      <c r="B220">
+        <v>60</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+      <c r="D220" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 60:5</v>
+      </c>
+      <c r="E220" s="6">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221">
+        <v>60</v>
+      </c>
+      <c r="C221">
+        <v>6</v>
+      </c>
+      <c r="D221" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 60:6</v>
+      </c>
+      <c r="E221" s="6">
+        <v>22.02</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>31</v>
+      </c>
+      <c r="B222">
+        <v>61</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 61:2</v>
+      </c>
+      <c r="E222" s="6">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>31</v>
+      </c>
+      <c r="B223">
+        <v>61</v>
+      </c>
+      <c r="C223">
+        <v>4</v>
+      </c>
+      <c r="D223" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 61:4</v>
+      </c>
+      <c r="E223" s="6">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>31</v>
+      </c>
+      <c r="B224">
+        <v>62</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 62:2</v>
+      </c>
+      <c r="E224" s="6">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>31</v>
+      </c>
+      <c r="B225">
+        <v>62</v>
+      </c>
+      <c r="C225">
+        <v>4</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="2"/>
+        <v>TG 62:4</v>
+      </c>
+      <c r="E225" s="6">
+        <v>22.64</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L127" xr:uid="{147213B5-EE2A-48F5-B604-A0A0D2D7B298}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:L94">
-    <sortCondition ref="A1:A94"/>
+  <autoFilter ref="A1:L142" xr:uid="{147213B5-EE2A-48F5-B604-A0A0D2D7B298}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:L108">
+    <sortCondition ref="A1:A108"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D28 D32:D1048576">
+  <conditionalFormatting sqref="D1:D28 D32:D63 D65:D66 D70:D1048576">
     <cfRule type="duplicateValues" dxfId="15" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
@@ -6662,37 +8903,37 @@
       <formula>NOT(ISERROR(SEARCH("tr",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46:G48">
+  <conditionalFormatting sqref="G46:G54">
     <cfRule type="duplicateValues" dxfId="10" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49:G52">
+  <conditionalFormatting sqref="G55:G63">
     <cfRule type="duplicateValues" dxfId="9" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
+  <conditionalFormatting sqref="G75">
     <cfRule type="duplicateValues" dxfId="8" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
+  <conditionalFormatting sqref="G76">
     <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63">
+  <conditionalFormatting sqref="G77">
     <cfRule type="duplicateValues" dxfId="6" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G65">
+  <conditionalFormatting sqref="G78:G79">
     <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G74">
+  <conditionalFormatting sqref="G81:G88">
     <cfRule type="duplicateValues" dxfId="4" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G79">
+  <conditionalFormatting sqref="G93">
     <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G80">
+  <conditionalFormatting sqref="G94">
     <cfRule type="duplicateValues" dxfId="2" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G122">
+  <conditionalFormatting sqref="G137">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G123">
+  <conditionalFormatting sqref="G138">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6708,12 +8949,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -6724,7 +8965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>15.66</v>
       </c>
@@ -6735,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>16.02</v>
       </c>
@@ -6746,7 +8987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>17.04</v>
       </c>
@@ -6757,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>16.484999999999999</v>
       </c>
@@ -6768,7 +9009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>15.69</v>
       </c>
@@ -6779,7 +9020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>15.87</v>
       </c>
@@ -6790,7 +9031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>15.08</v>
       </c>
@@ -6801,7 +9042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>16.86</v>
       </c>
@@ -6812,7 +9053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>17.810000000000002</v>
       </c>
@@ -6823,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>17.28</v>
       </c>
@@ -6834,7 +9075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>16.55</v>
       </c>
@@ -6845,7 +9086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>16.75</v>
       </c>
@@ -6856,7 +9097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>15.93</v>
       </c>
@@ -6867,7 +9108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>15.33</v>
       </c>
@@ -6878,7 +9119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14.74</v>
       </c>
@@ -6889,7 +9130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16.239999999999998</v>
       </c>
@@ -6900,29 +9141,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
     </row>
-    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
     </row>
   </sheetData>

--- a/data/compounds.xlsx
+++ b/data/compounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garciaalom\Documents\GitHub\IMN2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10CDA66-F293-4314-9C64-ABF55A494848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34006314-6FD6-49B7-B4AE-CFEDFC65B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBC8D854-8049-474B-86D3-FA7ACE4157A3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FBC8D854-8049-474B-86D3-FA7ACE4157A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="242">
   <si>
     <t>name</t>
   </si>
@@ -594,16 +594,178 @@
     <t>LPE 16:0</t>
   </si>
   <si>
-    <t>DG 34:3 (I)</t>
-  </si>
-  <si>
-    <t>DG 34:3 (II)</t>
-  </si>
-  <si>
-    <t>DG 36:3 (I)</t>
-  </si>
-  <si>
-    <t>DG 36:3 (II)</t>
+    <t>DG 16:0_16:0</t>
+  </si>
+  <si>
+    <t>x075_lipidgrape_xx_00_xQC_12_POS_DDA.mzML</t>
+  </si>
+  <si>
+    <t>DG 16:0_18:1</t>
+  </si>
+  <si>
+    <t>DG 16:0_18:2</t>
+  </si>
+  <si>
+    <t>DG 16:0_18:3</t>
+  </si>
+  <si>
+    <t>DG 18:1_18:2</t>
+  </si>
+  <si>
+    <t>x081_lipidgrape_xx_00_xQC_18_POS_DDA.mzML</t>
+  </si>
+  <si>
+    <t>DG 18:2_18:2</t>
+  </si>
+  <si>
+    <t>DG 18:2_18:3</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:1_18:1</t>
+  </si>
+  <si>
+    <t>x074_lipidgrape_xx_00_xQC_11_POS_DDA.mzML</t>
+  </si>
+  <si>
+    <t>TG 16:0_16:0_18:1</t>
+  </si>
+  <si>
+    <t>TG 14:0_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 14:0_18:2_18:3</t>
+  </si>
+  <si>
+    <t>TG 14:2_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 15:1_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 15:1_18:2_18:3</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:0_18:1</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:1_18:1</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:1_18:2</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 16:1_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 16:2_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 16:1_18:3_18:3</t>
+  </si>
+  <si>
+    <t>TG 17:0_18:1_18:2</t>
+  </si>
+  <si>
+    <t>TG 17:0_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 17:2_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:1_20:0 / TG 18:0_18:0_18:1</t>
+  </si>
+  <si>
+    <t>TG 18:0_18:1_18:1</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:1_18:2</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:2_18:2</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:2_18:3</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:3_18:3</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:3_18:3</t>
+  </si>
+  <si>
+    <t>TG 18:3_18:3_18:3</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:2_21:0</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:1_22:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:1_20:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:2_20:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:2_20:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:3_20:0</t>
+  </si>
+  <si>
+    <t>DG 36:6</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:1_23:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:1_21:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:2_21:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:2_21:0</t>
+  </si>
+  <si>
+    <t>TG 16:0_18:1_24:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:1_22:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:2_22:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:2_22:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:3_22:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:1_23:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:2_23:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:2_23:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:1_24:0</t>
+  </si>
+  <si>
+    <t>TG 18:1_18:2_24:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:2_24:0</t>
+  </si>
+  <si>
+    <t>TG 18:2_18:3_24:0</t>
   </si>
 </sst>
 </file>
@@ -681,7 +843,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -842,6 +1004,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -908,7 +1080,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{165FBE07-45ED-498B-B6F2-081ED93DC10C}" type="CELLRANGE">
+                    <a:fld id="{FE945284-3633-43DC-81E5-D2B5CE17F616}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -942,7 +1114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FB129AA-DA9D-475E-BC8C-3DB395022EFB}" type="CELLRANGE">
+                    <a:fld id="{87795A77-FD38-47A9-B16B-974FA05D7456}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -976,7 +1148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50D7FC5F-95AF-4DAE-AD34-F25D9FB878B8}" type="CELLRANGE">
+                    <a:fld id="{5FF0761C-2684-499A-8FD7-F10C2F190F07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1010,7 +1182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E02E86AB-991C-4034-AA75-326E368C732A}" type="CELLRANGE">
+                    <a:fld id="{FF996FB4-22E9-41FA-A345-0B0B974B44B3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1044,7 +1216,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1E38DF3-48C3-4A2F-86BA-FC9D21E923EC}" type="CELLRANGE">
+                    <a:fld id="{F7ECBFC0-608C-4834-B98F-6939BB3CC034}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1078,7 +1250,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D32775C9-5B21-4F17-99AA-102636471D21}" type="CELLRANGE">
+                    <a:fld id="{55C990A3-9743-4C5E-B8ED-115798BF58F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1112,7 +1284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D36459FA-484A-466F-A2A1-4349E76A3C25}" type="CELLRANGE">
+                    <a:fld id="{D98AE4DC-2355-4F44-AA74-8430143CEC9D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1146,7 +1318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DD0BC01-FA01-4825-80AC-E9375C8C6D34}" type="CELLRANGE">
+                    <a:fld id="{9EE31682-470B-4DE8-81A5-2545D60DB21F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1180,7 +1352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C84F81F8-5B78-4892-B3C8-B81CEFA2DDC7}" type="CELLRANGE">
+                    <a:fld id="{E1DCF2EE-2A0E-4B43-A6C4-2ECBA1755645}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1214,7 +1386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9535B806-15A2-48E6-A995-A67522797AB5}" type="CELLRANGE">
+                    <a:fld id="{18B4F6C5-D9FC-4FFB-83D0-DBF0F5B34FC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1248,7 +1420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53C48466-7E5B-445A-AF05-CA983596B38C}" type="CELLRANGE">
+                    <a:fld id="{8AE955C1-2ADA-4818-BC51-9BDDFC0881DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1282,7 +1454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E36B159F-B530-4D51-AB46-E923969C401A}" type="CELLRANGE">
+                    <a:fld id="{8034C55D-12D1-48EC-8BA1-9B7C1BB9B812}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1316,7 +1488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4A326C9-00E7-4BDF-84E4-DE5A7BB0627B}" type="CELLRANGE">
+                    <a:fld id="{6CCC4B43-5F36-48A2-8D5E-15A273811F95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1350,7 +1522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F55656A-B4E8-4378-B8CE-FAD1CFE69EEF}" type="CELLRANGE">
+                    <a:fld id="{436D7F0C-0757-4BD7-B9E2-23C89883C45D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1384,7 +1556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FE832BD-FABF-4A9D-B46A-F8DB8D3D80FC}" type="CELLRANGE">
+                    <a:fld id="{AE41F2B1-7F11-41C2-AEE3-B22311F1AC92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1418,7 +1590,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D6DB97C-3BD5-476E-8204-0C3F26C1F33D}" type="CELLRANGE">
+                    <a:fld id="{E12DF78B-014E-424C-ADC7-361A0EE2E373}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3314,11 +3486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147213B5-EE2A-48F5-B604-A0A0D2D7B298}">
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A226" sqref="A226:XFD234"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222:XFD223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6884,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" ref="D126:D189" si="1">A126&amp;" "&amp;B126&amp;":"&amp;C126</f>
+        <f t="shared" ref="D126:D190" si="1">A126&amp;" "&amp;B126&amp;":"&amp;C126</f>
         <v>DGDG 34:0</v>
       </c>
       <c r="E126" s="1">
@@ -7202,9 +7374,8 @@
       <c r="C138">
         <v>2</v>
       </c>
-      <c r="D138" t="str">
-        <f t="shared" si="1"/>
-        <v>DG 36:2</v>
+      <c r="D138" t="s">
+        <v>33</v>
       </c>
       <c r="E138" s="1">
         <f>AVERAGE(18.66,18.66)</f>
@@ -7216,6 +7387,12 @@
       <c r="G138" t="s">
         <v>33</v>
       </c>
+      <c r="K138" t="s">
+        <v>146</v>
+      </c>
+      <c r="L138" s="2">
+        <v>2194</v>
+      </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -7276,9 +7453,8 @@
       <c r="C141">
         <v>2</v>
       </c>
-      <c r="D141" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 50:2</v>
+      <c r="D141" t="s">
+        <v>101</v>
       </c>
       <c r="E141" s="1">
         <f>AVERAGE(21.51,21.49)</f>
@@ -7290,6 +7466,12 @@
       <c r="G141" t="s">
         <v>101</v>
       </c>
+      <c r="K141" t="s">
+        <v>126</v>
+      </c>
+      <c r="L141" s="2">
+        <v>2536</v>
+      </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -7301,9 +7483,8 @@
       <c r="C142">
         <v>3</v>
       </c>
-      <c r="D142" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 54:3</v>
+      <c r="D142" t="s">
+        <v>193</v>
       </c>
       <c r="E142" s="1">
         <f>AVERAGE(21.8,21.83)</f>
@@ -7315,6 +7496,12 @@
       <c r="G142" t="s">
         <v>102</v>
       </c>
+      <c r="K142" t="s">
+        <v>194</v>
+      </c>
+      <c r="L142" s="2">
+        <v>2584</v>
+      </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
@@ -7326,15 +7513,20 @@
       <c r="C143">
         <v>0</v>
       </c>
-      <c r="D143" t="str">
-        <f t="shared" si="1"/>
-        <v>DG 32:0</v>
+      <c r="D143" t="s">
+        <v>184</v>
       </c>
       <c r="E143" s="6">
         <v>18.53</v>
       </c>
       <c r="F143" s="9" t="b">
         <v>0</v>
+      </c>
+      <c r="K143" t="s">
+        <v>185</v>
+      </c>
+      <c r="L143" s="2">
+        <v>2192</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
@@ -7358,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -7368,9 +7560,8 @@
       <c r="C145">
         <v>1</v>
       </c>
-      <c r="D145" t="str">
-        <f t="shared" si="1"/>
-        <v>DG 34:1</v>
+      <c r="D145" t="s">
+        <v>186</v>
       </c>
       <c r="E145" s="6">
         <v>18.579999999999998</v>
@@ -7378,8 +7569,14 @@
       <c r="F145" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K145" t="s">
+        <v>146</v>
+      </c>
+      <c r="L145" s="2">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -7389,9 +7586,8 @@
       <c r="C146">
         <v>2</v>
       </c>
-      <c r="D146" t="str">
-        <f t="shared" si="1"/>
-        <v>DG 34:2</v>
+      <c r="D146" t="s">
+        <v>187</v>
       </c>
       <c r="E146" s="6">
         <v>18.13</v>
@@ -7399,8 +7595,14 @@
       <c r="F146" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K146" t="s">
+        <v>150</v>
+      </c>
+      <c r="L146" s="2">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -7411,36 +7613,49 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E147" s="6">
-        <v>17.420000000000002</v>
+        <v>17.61</v>
       </c>
       <c r="F147" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K147" t="s">
+        <v>176</v>
+      </c>
+      <c r="L147" s="2">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>32</v>
       </c>
       <c r="B148">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C148">
         <v>3</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E148" s="6">
-        <v>17.59</v>
+        <v>18.16</v>
       </c>
       <c r="F148" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="1"/>
+      <c r="K148" t="s">
+        <v>190</v>
+      </c>
+      <c r="L148" s="2">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -7448,19 +7663,26 @@
         <v>36</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E149" s="6">
-        <v>18.14</v>
+        <v>17.61</v>
       </c>
       <c r="F149" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="1"/>
+      <c r="K149" t="s">
+        <v>147</v>
+      </c>
+      <c r="L149" s="2">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -7468,19 +7690,26 @@
         <v>36</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E150" s="6">
-        <v>18.309999999999999</v>
+        <v>17.09</v>
       </c>
       <c r="F150" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="1"/>
+      <c r="K150" t="s">
+        <v>172</v>
+      </c>
+      <c r="L150" s="2">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -7488,63 +7717,63 @@
         <v>36</v>
       </c>
       <c r="C151">
-        <v>4</v>
-      </c>
-      <c r="D151" t="str">
-        <f t="shared" si="1"/>
-        <v>DG 36:4</v>
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>225</v>
       </c>
       <c r="E151" s="6">
-        <v>17.61</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="F151" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B152">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="1"/>
-        <v>DG 36:5</v>
+        <v>TG 46:0</v>
       </c>
       <c r="E152" s="6">
-        <v>17.09</v>
+        <v>21.44</v>
       </c>
       <c r="F152" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B153">
-        <f>18+22</f>
-        <v>40</v>
+        <f>12+16+18</f>
+        <v>46</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="1"/>
-        <v>DG 40:2</v>
+        <v>TG 46:1</v>
       </c>
       <c r="E153" s="6">
-        <v>19.87</v>
+        <v>21.12</v>
       </c>
       <c r="F153" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -7553,85 +7782,90 @@
         <v>46</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="1"/>
-        <v>TG 46:1</v>
+        <v>TG 46:2</v>
       </c>
       <c r="E154" s="6">
-        <v>21.12</v>
+        <v>20.8</v>
       </c>
       <c r="F154" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>31</v>
       </c>
       <c r="B155">
-        <f>12+16+18</f>
         <v>46</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="1"/>
-        <v>TG 46:2</v>
+        <v>TG 46:3</v>
       </c>
       <c r="E155" s="6">
-        <v>20.8</v>
+        <v>20.57</v>
       </c>
       <c r="F155" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>31</v>
       </c>
       <c r="B156">
-        <v>46</v>
+        <f>16*3</f>
+        <v>48</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="1"/>
-        <v>TG 46:3</v>
+        <v>TG 48:1</v>
       </c>
       <c r="E156" s="6">
-        <v>20.57</v>
+        <v>21.45</v>
       </c>
       <c r="F156" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>31</v>
       </c>
       <c r="B157">
-        <f>16*3</f>
         <v>48</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="1"/>
-        <v>TG 48:1</v>
+        <v>TG 48:2</v>
       </c>
       <c r="E157" s="6">
-        <v>21.45</v>
+        <v>21.16</v>
       </c>
       <c r="F157" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K157" t="s">
+        <v>146</v>
+      </c>
+      <c r="L157" s="2">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -7639,20 +7873,20 @@
         <v>48</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="1"/>
-        <v>TG 48:2</v>
+        <v>TG 48:3</v>
       </c>
       <c r="E158" s="6">
-        <v>21.16</v>
+        <v>20.9</v>
       </c>
       <c r="F158" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -7660,41 +7894,41 @@
         <v>48</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="1"/>
-        <v>TG 48:3</v>
+        <v>TG 48:4</v>
       </c>
       <c r="E159" s="6">
-        <v>20.9</v>
+        <v>20.52</v>
       </c>
       <c r="F159" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>31</v>
       </c>
       <c r="B160">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="1"/>
-        <v>TG 48:4</v>
+        <v>TG 49:0</v>
       </c>
       <c r="E160" s="6">
-        <v>20.52</v>
+        <v>21.84</v>
       </c>
       <c r="F160" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -7702,299 +7936,374 @@
         <v>49</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="1"/>
-        <v>TG 49:2</v>
+        <v>TG 49:1</v>
       </c>
       <c r="E161" s="6">
-        <v>21.42</v>
+        <v>21.63</v>
       </c>
       <c r="F161" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>31</v>
       </c>
       <c r="B162">
+        <v>49</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 49:2</v>
+      </c>
+      <c r="E162" s="6">
+        <v>21.42</v>
+      </c>
+      <c r="F162" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>31</v>
+      </c>
+      <c r="B163">
+        <v>49</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 49:3</v>
+      </c>
+      <c r="E163" s="6">
+        <v>21.12</v>
+      </c>
+      <c r="F163" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>31</v>
+      </c>
+      <c r="B164">
+        <v>49</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 49:4</v>
+      </c>
+      <c r="E164" s="6">
+        <v>20.84</v>
+      </c>
+      <c r="F164" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>31</v>
+      </c>
+      <c r="B165">
+        <v>50</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 50:0</v>
+      </c>
+      <c r="E165" s="6">
+        <v>22.05</v>
+      </c>
+      <c r="F165" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>31</v>
+      </c>
+      <c r="B166">
         <f>16+16+18</f>
         <v>50</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 50:1</v>
-      </c>
-      <c r="E162" s="6">
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>195</v>
+      </c>
+      <c r="E166" s="6">
         <v>21.77</v>
       </c>
-      <c r="F162" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="F166" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>124</v>
+      </c>
+      <c r="L166" s="2">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>31</v>
       </c>
-      <c r="B163">
+      <c r="B167">
         <v>50</v>
       </c>
-      <c r="C163">
+      <c r="C167">
         <v>3</v>
       </c>
-      <c r="D163" t="str">
+      <c r="D167" t="str">
         <f t="shared" si="1"/>
         <v>TG 50:3</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E167" s="6">
         <v>21.23</v>
       </c>
-      <c r="F163" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="F167" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>172</v>
+      </c>
+      <c r="L167" s="2">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>31</v>
       </c>
-      <c r="B164">
+      <c r="B168">
         <v>50</v>
       </c>
-      <c r="C164">
+      <c r="C168">
         <v>4</v>
       </c>
-      <c r="D164" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 50:4</v>
-      </c>
-      <c r="E164" s="6">
+      <c r="D168" t="s">
+        <v>196</v>
+      </c>
+      <c r="E168" s="6">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="F168" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>146</v>
+      </c>
+      <c r="L168" s="2">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>31</v>
       </c>
-      <c r="B165">
+      <c r="B169">
         <v>50</v>
       </c>
-      <c r="C165">
+      <c r="C169">
         <v>5</v>
       </c>
-      <c r="D165" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 50:5</v>
-      </c>
-      <c r="E165" s="6">
+      <c r="D169" t="s">
+        <v>197</v>
+      </c>
+      <c r="E169" s="6">
         <v>20.61</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="F169" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>152</v>
+      </c>
+      <c r="L169" s="2">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>31</v>
       </c>
-      <c r="B166">
+      <c r="B170">
         <v>50</v>
       </c>
-      <c r="C166">
+      <c r="C170">
         <v>6</v>
       </c>
-      <c r="D166" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 50:6</v>
-      </c>
-      <c r="E166" s="6">
+      <c r="D170" t="s">
+        <v>198</v>
+      </c>
+      <c r="E170" s="6">
         <v>20.329999999999998</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="F170" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>172</v>
+      </c>
+      <c r="L170" s="2">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>31</v>
       </c>
-      <c r="B167">
+      <c r="B171">
         <f>16+17+18</f>
         <v>51</v>
       </c>
-      <c r="C167">
+      <c r="C171">
         <v>2</v>
       </c>
-      <c r="D167" t="str">
+      <c r="D171" t="str">
         <f t="shared" si="1"/>
         <v>TG 51:2</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E171" s="6">
         <v>21.66</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="F171" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>31</v>
       </c>
-      <c r="B168">
+      <c r="B172">
         <v>51</v>
       </c>
-      <c r="C168">
+      <c r="C172">
         <v>3</v>
       </c>
-      <c r="D168" t="str">
+      <c r="D172" t="str">
         <f t="shared" si="1"/>
         <v>TG 51:3</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E172" s="6">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="F172" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>31</v>
       </c>
-      <c r="B169">
+      <c r="B173">
         <v>51</v>
       </c>
-      <c r="C169">
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="1"/>
+        <v>TG 51:4</v>
+      </c>
+      <c r="E173" s="6">
+        <v>21.11</v>
+      </c>
+      <c r="F173" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174">
+        <v>51</v>
+      </c>
+      <c r="C174">
         <v>5</v>
       </c>
-      <c r="D169" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 51:5</v>
-      </c>
-      <c r="E169" s="6">
+      <c r="D174" t="s">
+        <v>199</v>
+      </c>
+      <c r="E174" s="6">
         <v>20.83</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="F174" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>152</v>
+      </c>
+      <c r="L174" s="2">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>31</v>
       </c>
-      <c r="B170">
+      <c r="B175">
         <v>51</v>
       </c>
-      <c r="C170">
+      <c r="C175">
         <v>6</v>
       </c>
-      <c r="D170" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 51:6</v>
-      </c>
-      <c r="E170" s="6">
+      <c r="D175" t="s">
+        <v>200</v>
+      </c>
+      <c r="E175" s="6">
         <v>20.54</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="F175" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>172</v>
+      </c>
+      <c r="L175" s="2">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>31</v>
       </c>
-      <c r="B171">
+      <c r="B176">
         <f>16+18+18</f>
         <v>52</v>
       </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171" t="str">
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="str">
         <f t="shared" si="1"/>
         <v>TG 52:0</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E176" s="6">
         <v>22.33</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>31</v>
-      </c>
-      <c r="B172">
-        <v>52</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 52:1</v>
-      </c>
-      <c r="E172" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>31</v>
-      </c>
-      <c r="B173">
-        <v>52</v>
-      </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-      <c r="D173" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 52:2</v>
-      </c>
-      <c r="E173" s="6">
-        <v>21.79</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>31</v>
-      </c>
-      <c r="B174">
-        <v>52</v>
-      </c>
-      <c r="C174">
-        <v>3</v>
-      </c>
-      <c r="D174" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 52:3</v>
-      </c>
-      <c r="E174" s="6">
-        <v>21.52</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>31</v>
-      </c>
-      <c r="B175">
-        <v>52</v>
-      </c>
-      <c r="C175">
-        <v>4</v>
-      </c>
-      <c r="D175" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 52:4</v>
-      </c>
-      <c r="E175" s="6">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>31</v>
-      </c>
-      <c r="B176">
-        <v>52</v>
-      </c>
-      <c r="C176">
-        <v>5</v>
-      </c>
-      <c r="D176" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 52:5</v>
-      </c>
-      <c r="E176" s="6">
-        <v>20.99</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -8002,17 +8311,25 @@
         <v>52</v>
       </c>
       <c r="C177">
-        <v>6</v>
-      </c>
-      <c r="D177" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 52:6</v>
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>201</v>
       </c>
       <c r="E177" s="6">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F177" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>124</v>
+      </c>
+      <c r="L177" s="2">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -8020,235 +8337,319 @@
         <v>52</v>
       </c>
       <c r="C178">
-        <v>7</v>
-      </c>
-      <c r="D178" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 52:7</v>
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>202</v>
       </c>
       <c r="E178" s="6">
-        <v>20.37</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.79</v>
+      </c>
+      <c r="F178" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
+        <v>123</v>
+      </c>
+      <c r="L178" s="2">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>31</v>
       </c>
       <c r="B179">
+        <v>52</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>203</v>
+      </c>
+      <c r="E179" s="6">
+        <v>21.52</v>
+      </c>
+      <c r="F179" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" t="s">
+        <v>174</v>
+      </c>
+      <c r="L179" s="2">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>31</v>
+      </c>
+      <c r="B180">
+        <v>52</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>204</v>
+      </c>
+      <c r="E180" s="6">
+        <v>21.25</v>
+      </c>
+      <c r="F180" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K180" t="s">
+        <v>174</v>
+      </c>
+      <c r="L180" s="2">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>31</v>
+      </c>
+      <c r="B181">
+        <v>52</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>205</v>
+      </c>
+      <c r="E181" s="6">
+        <v>20.99</v>
+      </c>
+      <c r="F181" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>176</v>
+      </c>
+      <c r="L181" s="2">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182">
+        <v>52</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>206</v>
+      </c>
+      <c r="E182" s="6">
+        <v>20.71</v>
+      </c>
+      <c r="F182" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" t="s">
+        <v>152</v>
+      </c>
+      <c r="L182" s="2">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>31</v>
+      </c>
+      <c r="B183">
+        <v>52</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>207</v>
+      </c>
+      <c r="E183" s="6">
+        <v>20.37</v>
+      </c>
+      <c r="F183" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
+        <v>125</v>
+      </c>
+      <c r="L183" s="2">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184">
         <f>17+18+18</f>
         <v>53</v>
       </c>
-      <c r="C179">
+      <c r="C184">
         <v>2</v>
       </c>
-      <c r="D179" t="str">
+      <c r="D184" t="str">
         <f t="shared" si="1"/>
         <v>TG 53:2</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E184" s="6">
         <v>21.95</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="F184" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>31</v>
       </c>
-      <c r="B180">
+      <c r="B185">
         <v>53</v>
       </c>
-      <c r="C180">
+      <c r="C185">
         <v>3</v>
       </c>
-      <c r="D180" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 53:3</v>
-      </c>
-      <c r="E180" s="6">
+      <c r="D185" t="s">
+        <v>208</v>
+      </c>
+      <c r="E185" s="6">
         <v>21.68</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="F185" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>194</v>
+      </c>
+      <c r="L185" s="2">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>31</v>
       </c>
-      <c r="B181">
+      <c r="B186">
         <v>53</v>
       </c>
-      <c r="C181">
+      <c r="C186">
         <v>4</v>
       </c>
-      <c r="D181" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 53:4</v>
-      </c>
-      <c r="E181" s="6">
+      <c r="D186" t="s">
+        <v>209</v>
+      </c>
+      <c r="E186" s="6">
         <v>21.42</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="F186" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" t="s">
+        <v>176</v>
+      </c>
+      <c r="L186" s="2">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>31</v>
       </c>
-      <c r="B182">
+      <c r="B187">
         <v>53</v>
       </c>
-      <c r="C182">
+      <c r="C187">
         <v>5</v>
       </c>
-      <c r="D182" t="str">
+      <c r="D187" t="str">
         <f t="shared" si="1"/>
         <v>TG 53:5</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E187" s="6">
         <v>21.14</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="F187" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>31</v>
       </c>
-      <c r="B183">
+      <c r="B188">
         <v>53</v>
       </c>
-      <c r="C183">
+      <c r="C188">
         <v>6</v>
       </c>
-      <c r="D183" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 53:6</v>
-      </c>
-      <c r="E183" s="6">
+      <c r="D188" t="s">
+        <v>210</v>
+      </c>
+      <c r="E188" s="6">
         <v>20.81</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="F188" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>150</v>
+      </c>
+      <c r="L188" s="2">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>31</v>
       </c>
-      <c r="B184">
+      <c r="B189">
         <v>53</v>
       </c>
-      <c r="C184">
+      <c r="C189">
         <v>7</v>
       </c>
-      <c r="D184" t="str">
+      <c r="D189" t="str">
         <f t="shared" si="1"/>
         <v>TG 53:7</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E189" s="6">
         <v>20.54</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="F189" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>31</v>
       </c>
-      <c r="B185">
+      <c r="B190">
         <f>16+18+20</f>
         <v>54</v>
       </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185" t="str">
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="str">
         <f t="shared" si="1"/>
         <v>TG 54:0</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E190" s="6">
         <v>22.58</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>31</v>
-      </c>
-      <c r="B186">
-        <v>54</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 54:1</v>
-      </c>
-      <c r="E186" s="6">
-        <v>22.33</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>31</v>
-      </c>
-      <c r="B187">
-        <v>54</v>
-      </c>
-      <c r="C187">
-        <v>2</v>
-      </c>
-      <c r="D187" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 54:2</v>
-      </c>
-      <c r="E187" s="6">
-        <v>22.08</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>31</v>
-      </c>
-      <c r="B188">
-        <v>54</v>
-      </c>
-      <c r="C188">
-        <v>4</v>
-      </c>
-      <c r="D188" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 54:4</v>
-      </c>
-      <c r="E188" s="6">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>31</v>
-      </c>
-      <c r="B189">
-        <v>54</v>
-      </c>
-      <c r="C189">
-        <v>5</v>
-      </c>
-      <c r="D189" t="str">
-        <f t="shared" si="1"/>
-        <v>TG 54:5</v>
-      </c>
-      <c r="E189" s="6">
-        <v>21.27</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>31</v>
-      </c>
-      <c r="B190">
-        <v>54</v>
-      </c>
-      <c r="C190">
-        <v>6</v>
-      </c>
-      <c r="D190" t="str">
-        <f t="shared" ref="D190:D225" si="2">A190&amp;" "&amp;B190&amp;":"&amp;C190</f>
-        <v>TG 54:6</v>
-      </c>
-      <c r="E190" s="6">
-        <v>20.98</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>31</v>
       </c>
@@ -8256,17 +8657,25 @@
         <v>54</v>
       </c>
       <c r="C191">
-        <v>7</v>
-      </c>
-      <c r="D191" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 54:7</v>
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>211</v>
       </c>
       <c r="E191" s="6">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.33</v>
+      </c>
+      <c r="F191" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K191" t="s">
+        <v>194</v>
+      </c>
+      <c r="L191" s="2">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>31</v>
       </c>
@@ -8274,17 +8683,25 @@
         <v>54</v>
       </c>
       <c r="C192">
-        <v>8</v>
-      </c>
-      <c r="D192" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 54:8</v>
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>212</v>
       </c>
       <c r="E192" s="6">
-        <v>20.43</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.08</v>
+      </c>
+      <c r="F192" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K192" t="s">
+        <v>150</v>
+      </c>
+      <c r="L192" s="2">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>31</v>
       </c>
@@ -8292,590 +8709,1018 @@
         <v>54</v>
       </c>
       <c r="C193">
-        <v>9</v>
-      </c>
-      <c r="D193" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 54:9</v>
+        <v>4</v>
+      </c>
+      <c r="D193" t="s">
+        <v>213</v>
       </c>
       <c r="E193" s="6">
-        <v>20.13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.57</v>
+      </c>
+      <c r="F193" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K193" t="s">
+        <v>122</v>
+      </c>
+      <c r="L193" s="2">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>31</v>
       </c>
       <c r="B194">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C194">
-        <v>2</v>
-      </c>
-      <c r="D194" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 55:2</v>
+        <v>5</v>
+      </c>
+      <c r="D194" t="s">
+        <v>214</v>
       </c>
       <c r="E194" s="6">
-        <v>22.23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.27</v>
+      </c>
+      <c r="F194" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K194" t="s">
+        <v>176</v>
+      </c>
+      <c r="L194" s="2">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>31</v>
       </c>
       <c r="B195">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C195">
-        <v>3</v>
-      </c>
-      <c r="D195" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 55:3</v>
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>215</v>
       </c>
       <c r="E195" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.98</v>
+      </c>
+      <c r="F195" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K195" t="s">
+        <v>176</v>
+      </c>
+      <c r="L195" s="2">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>31</v>
       </c>
       <c r="B196">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C196">
-        <v>4</v>
-      </c>
-      <c r="D196" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 55:4</v>
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>216</v>
       </c>
       <c r="E196" s="6">
-        <v>21.72</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.71</v>
+      </c>
+      <c r="F196" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K196" t="s">
+        <v>146</v>
+      </c>
+      <c r="L196" s="2">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>31</v>
       </c>
       <c r="B197">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C197">
-        <v>6</v>
-      </c>
-      <c r="D197" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 55:6</v>
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>217</v>
       </c>
       <c r="E197" s="6">
-        <v>21.16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.43</v>
+      </c>
+      <c r="F197" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>172</v>
+      </c>
+      <c r="L197" s="2">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>31</v>
       </c>
       <c r="B198">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C198">
-        <v>1</v>
-      </c>
-      <c r="D198" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 56:1</v>
+        <v>9</v>
+      </c>
+      <c r="D198" t="s">
+        <v>218</v>
       </c>
       <c r="E198" s="6">
-        <v>22.57</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.13</v>
+      </c>
+      <c r="F198" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K198" t="s">
+        <v>194</v>
+      </c>
+      <c r="L198" s="2">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>31</v>
       </c>
       <c r="B199">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 56:2</v>
+        <f t="shared" ref="D199" si="2">A199&amp;" "&amp;B199&amp;":"&amp;C199</f>
+        <v>TG 55:1</v>
       </c>
       <c r="E199" s="6">
-        <v>22.35</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.45</v>
+      </c>
+      <c r="F199" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>31</v>
       </c>
       <c r="B200">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C200">
-        <v>3</v>
-      </c>
-      <c r="D200" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 56:3</v>
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>219</v>
       </c>
       <c r="E200" s="6">
-        <v>22.13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.23</v>
+      </c>
+      <c r="F200" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>172</v>
+      </c>
+      <c r="L200" s="2">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>31</v>
       </c>
       <c r="B201">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 56:4</v>
+        <f t="shared" ref="D201:D234" si="3">A201&amp;" "&amp;B201&amp;":"&amp;C201</f>
+        <v>TG 55:3</v>
       </c>
       <c r="E201" s="6">
-        <v>21.88</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F201" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>31</v>
       </c>
       <c r="B202">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 56:5</v>
+        <f t="shared" si="3"/>
+        <v>TG 55:4</v>
       </c>
       <c r="E202" s="6">
-        <v>21.62</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.72</v>
+      </c>
+      <c r="F202" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>31</v>
       </c>
       <c r="B203">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C203">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 56:6</v>
+        <f t="shared" si="3"/>
+        <v>TG 55:5</v>
       </c>
       <c r="E203" s="6">
-        <v>21.32</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.43</v>
+      </c>
+      <c r="F203" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>31</v>
       </c>
       <c r="B204">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 57:1</v>
+        <f t="shared" si="3"/>
+        <v>TG 55:6</v>
       </c>
       <c r="E204" s="6">
-        <v>22.68</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.16</v>
+      </c>
+      <c r="F204" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>31</v>
       </c>
       <c r="B205">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 57:2</v>
+        <f t="shared" si="3"/>
+        <v>TG 55:7</v>
       </c>
       <c r="E205" s="6">
-        <v>22.48</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.76</v>
+      </c>
+      <c r="F205" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>31</v>
       </c>
       <c r="B206">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 57:3</v>
+        <f t="shared" si="3"/>
+        <v>TG 56:0</v>
       </c>
       <c r="E206" s="6">
-        <v>22.27</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.78</v>
+      </c>
+      <c r="F206" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>31</v>
       </c>
       <c r="B207">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C207">
-        <v>4</v>
-      </c>
-      <c r="D207" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 57:4</v>
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>220</v>
       </c>
       <c r="E207" s="6">
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.57</v>
+      </c>
+      <c r="F207" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K207" t="s">
+        <v>126</v>
+      </c>
+      <c r="L207" s="2">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>31</v>
       </c>
       <c r="B208">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C208">
-        <v>1</v>
-      </c>
-      <c r="D208" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 58:1</v>
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>221</v>
       </c>
       <c r="E208" s="6">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.35</v>
+      </c>
+      <c r="F208" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>125</v>
+      </c>
+      <c r="L208" s="2">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>31</v>
       </c>
       <c r="B209">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C209">
-        <v>2</v>
-      </c>
-      <c r="D209" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 58:2</v>
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>222</v>
       </c>
       <c r="E209" s="6">
-        <v>22.58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.13</v>
+      </c>
+      <c r="F209" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K209" t="s">
+        <v>172</v>
+      </c>
+      <c r="L209" s="2">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>31</v>
       </c>
       <c r="B210">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C210">
-        <v>3</v>
-      </c>
-      <c r="D210" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 58:3</v>
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>223</v>
       </c>
       <c r="E210" s="6">
-        <v>22.38</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.88</v>
+      </c>
+      <c r="F210" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K210" t="s">
+        <v>122</v>
+      </c>
+      <c r="L210" s="2">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>31</v>
       </c>
       <c r="B211">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C211">
-        <v>4</v>
-      </c>
-      <c r="D211" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 58:4</v>
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>224</v>
       </c>
       <c r="E211" s="6">
-        <v>22.16</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.62</v>
+      </c>
+      <c r="F211" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K211" t="s">
+        <v>125</v>
+      </c>
+      <c r="L211" s="2">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>31</v>
       </c>
       <c r="B212">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C212">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 58:5</v>
+        <f t="shared" si="3"/>
+        <v>TG 56:6</v>
       </c>
       <c r="E212" s="6">
-        <v>21.95</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.32</v>
+      </c>
+      <c r="F212" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>31</v>
       </c>
       <c r="B213">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C213">
-        <v>6</v>
-      </c>
-      <c r="D213" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 58:6</v>
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>226</v>
       </c>
       <c r="E213" s="6">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.68</v>
+      </c>
+      <c r="F213" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K213" t="s">
+        <v>146</v>
+      </c>
+      <c r="L213" s="2">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>31</v>
       </c>
       <c r="B214">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C214">
         <v>2</v>
       </c>
-      <c r="D214" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 59:2</v>
+      <c r="D214" t="s">
+        <v>227</v>
       </c>
       <c r="E214" s="6">
-        <v>22.69</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.48</v>
+      </c>
+      <c r="F214" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>152</v>
+      </c>
+      <c r="L214" s="2">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>31</v>
       </c>
       <c r="B215">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C215">
         <v>3</v>
       </c>
-      <c r="D215" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 59:3</v>
+      <c r="D215" t="s">
+        <v>228</v>
       </c>
       <c r="E215" s="6">
-        <v>22.49</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.27</v>
+      </c>
+      <c r="F215" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K215" t="s">
+        <v>146</v>
+      </c>
+      <c r="L215" s="2">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>31</v>
       </c>
       <c r="B216">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C216">
         <v>4</v>
       </c>
-      <c r="D216" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 59:4</v>
+      <c r="D216" t="s">
+        <v>229</v>
       </c>
       <c r="E216" s="6">
-        <v>22.29</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.02</v>
+      </c>
+      <c r="F216" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K216" t="s">
+        <v>185</v>
+      </c>
+      <c r="L216" s="2">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>31</v>
       </c>
       <c r="B217">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C217">
-        <v>2</v>
-      </c>
-      <c r="D217" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 60:2</v>
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>230</v>
       </c>
       <c r="E217" s="6">
-        <v>22.81</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.8</v>
+      </c>
+      <c r="F217" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K217" t="s">
+        <v>149</v>
+      </c>
+      <c r="L217" s="2">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>31</v>
       </c>
       <c r="B218">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C218">
-        <v>3</v>
-      </c>
-      <c r="D218" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 60:3</v>
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>231</v>
       </c>
       <c r="E218" s="6">
-        <v>22.61</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.58</v>
+      </c>
+      <c r="F218" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K218" t="s">
+        <v>176</v>
+      </c>
+      <c r="L218" s="2">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>31</v>
       </c>
       <c r="B219">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C219">
-        <v>4</v>
-      </c>
-      <c r="D219" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 60:4</v>
+        <v>3</v>
+      </c>
+      <c r="D219" t="s">
+        <v>232</v>
       </c>
       <c r="E219" s="6">
-        <v>22.41</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.38</v>
+      </c>
+      <c r="F219" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>150</v>
+      </c>
+      <c r="L219" s="2">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>31</v>
       </c>
       <c r="B220">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C220">
-        <v>5</v>
-      </c>
-      <c r="D220" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 60:5</v>
+        <v>4</v>
+      </c>
+      <c r="D220" t="s">
+        <v>233</v>
       </c>
       <c r="E220" s="6">
-        <v>22.22</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.16</v>
+      </c>
+      <c r="F220" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>149</v>
+      </c>
+      <c r="L220" s="2">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>31</v>
       </c>
       <c r="B221">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C221">
-        <v>6</v>
-      </c>
-      <c r="D221" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 60:6</v>
+        <v>5</v>
+      </c>
+      <c r="D221" t="s">
+        <v>234</v>
       </c>
       <c r="E221" s="6">
-        <v>22.02</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.95</v>
+      </c>
+      <c r="F221" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>152</v>
+      </c>
+      <c r="L221" s="2">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>31</v>
       </c>
       <c r="B222">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
-      <c r="D222" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 61:2</v>
+      <c r="D222" t="s">
+        <v>235</v>
       </c>
       <c r="E222" s="6">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.69</v>
+      </c>
+      <c r="F222" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K222" t="s">
+        <v>174</v>
+      </c>
+      <c r="L222" s="2">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>31</v>
       </c>
       <c r="B223">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C223">
-        <v>4</v>
-      </c>
-      <c r="D223" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 61:4</v>
+        <v>3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>236</v>
       </c>
       <c r="E223" s="6">
-        <v>22.52</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.49</v>
+      </c>
+      <c r="F223" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>176</v>
+      </c>
+      <c r="L223" s="2">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>31</v>
       </c>
       <c r="B224">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C224">
-        <v>2</v>
-      </c>
-      <c r="D224" t="str">
-        <f t="shared" si="2"/>
-        <v>TG 62:2</v>
+        <v>4</v>
+      </c>
+      <c r="D224" t="s">
+        <v>237</v>
       </c>
       <c r="E224" s="6">
-        <v>23.01</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.29</v>
+      </c>
+      <c r="F224" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K224" t="s">
+        <v>190</v>
+      </c>
+      <c r="L224" s="2">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>31</v>
       </c>
       <c r="B225">
+        <v>59</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225" t="str">
+        <f t="shared" si="3"/>
+        <v>TG 59:5</v>
+      </c>
+      <c r="E225" s="6">
+        <v>22.09</v>
+      </c>
+      <c r="F225" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226">
+        <v>60</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>238</v>
+      </c>
+      <c r="E226" s="6">
+        <v>22.81</v>
+      </c>
+      <c r="F226" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K226" t="s">
+        <v>148</v>
+      </c>
+      <c r="L226" s="2">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>31</v>
+      </c>
+      <c r="B227">
+        <v>60</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227" t="s">
+        <v>239</v>
+      </c>
+      <c r="E227" s="6">
+        <v>22.61</v>
+      </c>
+      <c r="F227" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K227" t="s">
+        <v>194</v>
+      </c>
+      <c r="L227" s="2">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>31</v>
+      </c>
+      <c r="B228">
+        <v>60</v>
+      </c>
+      <c r="C228">
+        <v>4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>240</v>
+      </c>
+      <c r="E228" s="6">
+        <v>22.41</v>
+      </c>
+      <c r="F228" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K228" t="s">
+        <v>190</v>
+      </c>
+      <c r="L228" s="2">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>31</v>
+      </c>
+      <c r="B229">
+        <v>60</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s">
+        <v>241</v>
+      </c>
+      <c r="E229" s="6">
+        <v>22.22</v>
+      </c>
+      <c r="F229" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K229" t="s">
+        <v>149</v>
+      </c>
+      <c r="L229" s="2">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230">
+        <v>60</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+      <c r="D230" t="str">
+        <f t="shared" si="3"/>
+        <v>TG 60:6</v>
+      </c>
+      <c r="E230" s="6">
+        <v>22.02</v>
+      </c>
+      <c r="F230" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>31</v>
+      </c>
+      <c r="B231">
+        <v>61</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="str">
+        <f t="shared" si="3"/>
+        <v>TG 61:2</v>
+      </c>
+      <c r="E231" s="6">
+        <v>22.9</v>
+      </c>
+      <c r="F231" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>31</v>
+      </c>
+      <c r="B232">
+        <v>61</v>
+      </c>
+      <c r="C232">
+        <v>4</v>
+      </c>
+      <c r="D232" t="str">
+        <f t="shared" si="3"/>
+        <v>TG 61:4</v>
+      </c>
+      <c r="E232" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="F232" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>31</v>
+      </c>
+      <c r="B233">
         <v>62</v>
       </c>
-      <c r="C225">
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233" t="str">
+        <f t="shared" si="3"/>
+        <v>TG 62:2</v>
+      </c>
+      <c r="E233" s="6">
+        <v>23.01</v>
+      </c>
+      <c r="F233" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>31</v>
+      </c>
+      <c r="B234">
+        <v>62</v>
+      </c>
+      <c r="C234">
         <v>4</v>
       </c>
-      <c r="D225" t="str">
-        <f t="shared" si="2"/>
+      <c r="D234" t="str">
+        <f t="shared" si="3"/>
         <v>TG 62:4</v>
       </c>
-      <c r="E225" s="6">
+      <c r="E234" s="6">
         <v>22.64</v>
+      </c>
+      <c r="F234" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8884,57 +9729,60 @@
     <sortCondition ref="A1:A108"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D28 D32:D63 D65:D66 D70:D1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="24"/>
+  <conditionalFormatting sqref="D1:D28 D32:D63 D65:D66 D70:D137 D139:D1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D138">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"IS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G22">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="tr">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="tr">
       <formula>NOT(ISERROR(SEARCH("tr",G21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G54">
-    <cfRule type="duplicateValues" dxfId="10" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:G63">
-    <cfRule type="duplicateValues" dxfId="9" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G75">
-    <cfRule type="duplicateValues" dxfId="8" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76">
-    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G77">
-    <cfRule type="duplicateValues" dxfId="6" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G78:G79">
-    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:G88">
-    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G93">
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94">
-    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G137">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
